--- a/Data/Diversity_HP.xlsx
+++ b/Data/Diversity_HP.xlsx
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="G2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H2">
-        <v>0.7671731625311896</v>
+        <v>0.780780381413313</v>
       </c>
       <c r="I2">
-        <v>3.728317651562448</v>
+        <v>3.824137227106977</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="G3">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H3">
-        <v>0.7034804570327376</v>
+        <v>0.7203426655011388</v>
       </c>
       <c r="I3">
-        <v>3.319371742487129</v>
+        <v>3.436527678652896</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="G4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H4">
-        <v>0.6258717100737828</v>
+        <v>0.6325510180883704</v>
       </c>
       <c r="I4">
-        <v>2.809310520623631</v>
+        <v>2.860261967992734</v>
       </c>
     </row>
     <row r="5">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="G5">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H5">
-        <v>0.5665810561555504</v>
+        <v>0.5675696506395151</v>
       </c>
       <c r="I5">
-        <v>2.57414475616454</v>
+        <v>2.596467111845919</v>
       </c>
     </row>
     <row r="6">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="G6">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H6">
-        <v>0.6339521938561619</v>
+        <v>0.6337577330648468</v>
       </c>
       <c r="I6">
-        <v>2.85966928033328</v>
+        <v>2.872569979671681</v>
       </c>
     </row>
     <row r="7">
@@ -629,13 +629,13 @@
         </is>
       </c>
       <c r="G7">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H7">
-        <v>0.6513015671051882</v>
+        <v>0.6540850043883322</v>
       </c>
       <c r="I7">
-        <v>2.885797924642643</v>
+        <v>2.913521770817131</v>
       </c>
     </row>
     <row r="8">
@@ -668,13 +668,13 @@
         </is>
       </c>
       <c r="G8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H8">
-        <v>0.69202802798064</v>
+        <v>0.6896584922813072</v>
       </c>
       <c r="I8">
-        <v>3.121641208792579</v>
+        <v>3.125945732563092</v>
       </c>
     </row>
     <row r="9">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="G9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9">
-        <v>0.7439299777344605</v>
+        <v>0.7489296734735448</v>
       </c>
       <c r="I9">
-        <v>3.313722484923426</v>
+        <v>3.34465110906683</v>
       </c>
     </row>
     <row r="10">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="G10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H10">
-        <v>0.6218830229362531</v>
+        <v>0.6249272192770342</v>
       </c>
       <c r="I10">
-        <v>2.595980574309311</v>
+        <v>2.627626866550665</v>
       </c>
     </row>
     <row r="11">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="G11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H11">
-        <v>0.6812904602628058</v>
+        <v>0.6823892195344365</v>
       </c>
       <c r="I11">
-        <v>2.932318488350145</v>
+        <v>2.955245744089753</v>
       </c>
     </row>
     <row r="12">
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="G12">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12">
-        <v>0.7011727939179402</v>
+        <v>0.7032625702755246</v>
       </c>
       <c r="I12">
-        <v>2.926966784928206</v>
+        <v>2.946427362444544</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         <v>55</v>
       </c>
       <c r="H13">
-        <v>0.5806950576595806</v>
+        <v>0.5818357365265272</v>
       </c>
       <c r="I13">
-        <v>2.327038575059721</v>
+        <v>2.331609655336929</v>
       </c>
     </row>
     <row r="14">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="G14">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H14">
-        <v>0.7465478165746886</v>
+        <v>0.7530856352427704</v>
       </c>
       <c r="I14">
-        <v>3.6222725994835</v>
+        <v>3.682851679785808</v>
       </c>
     </row>
     <row r="15">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="G15">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H15">
-        <v>0.7811011458591419</v>
+        <v>0.784663175258779</v>
       </c>
       <c r="I15">
-        <v>3.713034745217959</v>
+        <v>3.75000221505872</v>
       </c>
     </row>
     <row r="16">
@@ -980,13 +980,13 @@
         </is>
       </c>
       <c r="G16">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H16">
-        <v>0.6882164709302624</v>
+        <v>0.6893184975188473</v>
       </c>
       <c r="I16">
-        <v>3.104447810437251</v>
+        <v>3.124404672475091</v>
       </c>
     </row>
     <row r="17">
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="G17">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H17">
-        <v>0.6640506052594811</v>
+        <v>0.6672909667025524</v>
       </c>
       <c r="I17">
-        <v>3.121356831914762</v>
+        <v>3.172027793931137</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1058,13 @@
         </is>
       </c>
       <c r="G18">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H18">
-        <v>0.6387640688628556</v>
+        <v>0.6380039376212304</v>
       </c>
       <c r="I18">
-        <v>2.895261694772291</v>
+        <v>2.912072118830821</v>
       </c>
     </row>
     <row r="19">
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="G19">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H19">
-        <v>0.6714234993201281</v>
+        <v>0.6770727025224447</v>
       </c>
       <c r="I19">
-        <v>2.950536429014548</v>
+        <v>2.991876352336765</v>
       </c>
     </row>
     <row r="20">
@@ -1136,13 +1136,13 @@
         </is>
       </c>
       <c r="G20">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H20">
-        <v>0.6315796959860321</v>
+        <v>0.630498255043028</v>
       </c>
       <c r="I20">
-        <v>2.674175698946018</v>
+        <v>2.687612224281579</v>
       </c>
     </row>
     <row r="21">
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="G21">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H21">
-        <v>0.7555156183047119</v>
+        <v>0.7588264277559221</v>
       </c>
       <c r="I21">
-        <v>3.516139731514875</v>
+        <v>3.573715979070467</v>
       </c>
     </row>
     <row r="22">
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="G22">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H22">
-        <v>0.7685034755000636</v>
+        <v>0.7780236699832768</v>
       </c>
       <c r="I22">
-        <v>3.554307681102268</v>
+        <v>3.678019620148813</v>
       </c>
     </row>
     <row r="23">
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="G23">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H23">
-        <v>0.6566017917305482</v>
+        <v>0.6559104517419112</v>
       </c>
       <c r="I23">
-        <v>2.893459753407202</v>
+        <v>2.951472193618945</v>
       </c>
     </row>
     <row r="24">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="G24">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H24">
-        <v>0.68185481906975</v>
+        <v>0.7037871928345342</v>
       </c>
       <c r="I24">
-        <v>3.021173786706516</v>
+        <v>3.197512681033592</v>
       </c>
     </row>
     <row r="25">
@@ -1331,13 +1331,13 @@
         </is>
       </c>
       <c r="G25">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H25">
-        <v>0.6178569781202845</v>
+        <v>0.6234084003804374</v>
       </c>
       <c r="I25">
-        <v>2.607052279875366</v>
+        <v>2.666109584217013</v>
       </c>
     </row>
     <row r="26">
@@ -1370,13 +1370,13 @@
         </is>
       </c>
       <c r="G26">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H26">
-        <v>0.7705162358787457</v>
+        <v>0.7897773803840672</v>
       </c>
       <c r="I26">
-        <v>3.876034092013001</v>
+        <v>4.003305882247284</v>
       </c>
     </row>
     <row r="27">
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="G27">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H27">
-        <v>0.8103322316207804</v>
+        <v>0.8194709329230376</v>
       </c>
       <c r="I27">
-        <v>3.974902257925142</v>
+        <v>4.072617541056865</v>
       </c>
     </row>
     <row r="28">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="G28">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H28">
-        <v>0.6427236564166471</v>
+        <v>0.6476212709579144</v>
       </c>
       <c r="I28">
-        <v>2.985059900524342</v>
+        <v>3.020142353163682</v>
       </c>
     </row>
     <row r="29">
@@ -1490,10 +1490,10 @@
         <v>96</v>
       </c>
       <c r="H29">
-        <v>0.613648158321712</v>
+        <v>0.6200545186694937</v>
       </c>
       <c r="I29">
-        <v>2.800903861633275</v>
+        <v>2.830144720900563</v>
       </c>
     </row>
     <row r="30">
@@ -1529,10 +1529,10 @@
         <v>79</v>
       </c>
       <c r="H30">
-        <v>0.6215007332124266</v>
+        <v>0.6248289602036714</v>
       </c>
       <c r="I30">
-        <v>2.715615044041717</v>
+        <v>2.730157558321134</v>
       </c>
     </row>
     <row r="31">
@@ -1565,13 +1565,13 @@
         </is>
       </c>
       <c r="G31">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H31">
-        <v>0.6799763195522267</v>
+        <v>0.6795899634485976</v>
       </c>
       <c r="I31">
-        <v>3.09652844844447</v>
+        <v>3.101885220606299</v>
       </c>
     </row>
     <row r="32">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="G32">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32">
-        <v>0.6919266158350782</v>
+        <v>0.6913140987262745</v>
       </c>
       <c r="I32">
-        <v>3.121183752851695</v>
+        <v>3.125976194773421</v>
       </c>
     </row>
     <row r="33">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="G33">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H33">
-        <v>0.6675714263778998</v>
+        <v>0.6659601677129305</v>
       </c>
       <c r="I33">
-        <v>2.891073833237273</v>
+        <v>2.909878224641842</v>
       </c>
     </row>
     <row r="34">
@@ -1682,13 +1682,13 @@
         </is>
       </c>
       <c r="G34">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H34">
-        <v>0.6321670873382789</v>
+        <v>0.6310288867581144</v>
       </c>
       <c r="I34">
-        <v>2.676662776491311</v>
+        <v>2.680923222987553</v>
       </c>
     </row>
     <row r="35">
@@ -1721,13 +1721,13 @@
         </is>
       </c>
       <c r="G35">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H35">
-        <v>0.6447733315494318</v>
+        <v>0.6436839000917077</v>
       </c>
       <c r="I35">
-        <v>2.720626040564896</v>
+        <v>2.734687986923396</v>
       </c>
     </row>
     <row r="36">
@@ -1760,13 +1760,13 @@
         </is>
       </c>
       <c r="G36">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H36">
-        <v>0.7064104852980125</v>
+        <v>0.7044584618448708</v>
       </c>
       <c r="I36">
-        <v>2.959616039546006</v>
+        <v>2.982752155515948</v>
       </c>
     </row>
     <row r="37">
@@ -1799,13 +1799,13 @@
         </is>
       </c>
       <c r="G37">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H37">
-        <v>0.7380137250272684</v>
+        <v>0.7456027709902561</v>
       </c>
       <c r="I37">
-        <v>3.124828713620011</v>
+        <v>3.188694108938515</v>
       </c>
     </row>
     <row r="38">
@@ -1838,13 +1838,13 @@
         </is>
       </c>
       <c r="G38">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H38">
-        <v>0.7532044890023243</v>
+        <v>0.7718326760239983</v>
       </c>
       <c r="I38">
-        <v>3.599657268508073</v>
+        <v>3.744955502750505</v>
       </c>
     </row>
     <row r="39">
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="G39">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H39">
-        <v>0.8071775663448081</v>
+        <v>0.8202775891607037</v>
       </c>
       <c r="I39">
-        <v>3.935149910792228</v>
+        <v>4.041715774043945</v>
       </c>
     </row>
     <row r="40">
@@ -1916,13 +1916,13 @@
         </is>
       </c>
       <c r="G40">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H40">
-        <v>0.6514375641989351</v>
+        <v>0.6573702398853748</v>
       </c>
       <c r="I40">
-        <v>2.98682004623649</v>
+        <v>3.027301829875968</v>
       </c>
     </row>
     <row r="41">
@@ -1955,13 +1955,13 @@
         </is>
       </c>
       <c r="G41">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H41">
-        <v>0.6640181166824317</v>
+        <v>0.6671347889219634</v>
       </c>
       <c r="I41">
-        <v>3.139071156208837</v>
+        <v>3.188319542808957</v>
       </c>
     </row>
     <row r="42">
@@ -1994,13 +1994,13 @@
         </is>
       </c>
       <c r="G42">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H42">
-        <v>0.6705588734387032</v>
+        <v>0.6745416781848502</v>
       </c>
       <c r="I42">
-        <v>3.081298390022074</v>
+        <v>3.11973692303208</v>
       </c>
     </row>
     <row r="43">
@@ -2033,13 +2033,13 @@
         </is>
       </c>
       <c r="G43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H43">
-        <v>0.6789788880756277</v>
+        <v>0.6801822655649647</v>
       </c>
       <c r="I43">
-        <v>3.0552757665128</v>
+        <v>3.06820663878789</v>
       </c>
     </row>
     <row r="44">
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="G44">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H44">
-        <v>0.6979746117344052</v>
+        <v>0.6962515652162253</v>
       </c>
       <c r="I44">
-        <v>3.117090485159461</v>
+        <v>3.132999526142554</v>
       </c>
     </row>
     <row r="45">
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G45">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H45">
-        <v>0.6651734882894417</v>
+        <v>0.6634701610088863</v>
       </c>
       <c r="I45">
-        <v>2.985721911717583</v>
+        <v>3.00007179526287</v>
       </c>
     </row>
     <row r="46">
@@ -2150,13 +2150,13 @@
         </is>
       </c>
       <c r="G46">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H46">
-        <v>0.7130813503281871</v>
+        <v>0.7131155844005975</v>
       </c>
       <c r="I46">
-        <v>3.200762883660806</v>
+        <v>3.247440580842096</v>
       </c>
     </row>
     <row r="47">
@@ -2189,13 +2189,13 @@
         </is>
       </c>
       <c r="G47">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H47">
-        <v>0.6484427327601555</v>
+        <v>0.6457179968829893</v>
       </c>
       <c r="I47">
-        <v>2.754905864873005</v>
+        <v>2.804873335848829</v>
       </c>
     </row>
     <row r="48">
@@ -2228,13 +2228,13 @@
         </is>
       </c>
       <c r="G48">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H48">
-        <v>0.7020651186722843</v>
+        <v>0.7017507955916061</v>
       </c>
       <c r="I48">
-        <v>3.058693299430416</v>
+        <v>3.109329213708949</v>
       </c>
     </row>
     <row r="49">
@@ -2267,13 +2267,13 @@
         </is>
       </c>
       <c r="G49">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H49">
-        <v>0.6842143887353047</v>
+        <v>0.6827407600166586</v>
       </c>
       <c r="I49">
-        <v>2.926156494447558</v>
+        <v>2.956768172176572</v>
       </c>
     </row>
     <row r="50">
@@ -2306,13 +2306,13 @@
         </is>
       </c>
       <c r="G50">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="H50">
-        <v>0.7910439495130978</v>
+        <v>0.8066686660254064</v>
       </c>
       <c r="I50">
-        <v>3.93134074083932</v>
+        <v>4.063151836622202</v>
       </c>
     </row>
     <row r="51">
@@ -2348,10 +2348,10 @@
         <v>131</v>
       </c>
       <c r="H51">
-        <v>0.7647308408708612</v>
+        <v>0.7776043995747725</v>
       </c>
       <c r="I51">
-        <v>3.728213748382988</v>
+        <v>3.790974887316369</v>
       </c>
     </row>
     <row r="52">
@@ -2384,13 +2384,13 @@
         </is>
       </c>
       <c r="G52">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H52">
-        <v>0.6114620903782703</v>
+        <v>0.6172055465789201</v>
       </c>
       <c r="I52">
-        <v>2.784523083463367</v>
+        <v>2.836133458697965</v>
       </c>
     </row>
     <row r="53">
@@ -2423,13 +2423,13 @@
         </is>
       </c>
       <c r="G53">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H53">
-        <v>0.6060372014822883</v>
+        <v>0.6054732954969642</v>
       </c>
       <c r="I53">
-        <v>2.740372094929379</v>
+        <v>2.763590941283639</v>
       </c>
     </row>
     <row r="54">
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="G54">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H54">
-        <v>0.6946240015342651</v>
+        <v>0.6959903711659989</v>
       </c>
       <c r="I54">
-        <v>3.177704045750753</v>
+        <v>3.198159170047423</v>
       </c>
     </row>
     <row r="55">
@@ -2501,13 +2501,13 @@
         </is>
       </c>
       <c r="G55">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H55">
-        <v>0.6700005109436712</v>
+        <v>0.6690379786063146</v>
       </c>
       <c r="I55">
-        <v>2.976578611793055</v>
+        <v>2.987862140346192</v>
       </c>
     </row>
     <row r="56">
@@ -2540,13 +2540,13 @@
         </is>
       </c>
       <c r="G56">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56">
-        <v>0.6697937929755426</v>
+        <v>0.6720629314053529</v>
       </c>
       <c r="I56">
-        <v>3.028665922055159</v>
+        <v>3.031581463107417</v>
       </c>
     </row>
     <row r="57">
@@ -2579,13 +2579,13 @@
         </is>
       </c>
       <c r="G57">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H57">
-        <v>0.6727651334479635</v>
+        <v>0.6745991350237772</v>
       </c>
       <c r="I57">
-        <v>2.895624926798225</v>
+        <v>2.921508965375792</v>
       </c>
     </row>
     <row r="58">
@@ -2618,13 +2618,13 @@
         </is>
       </c>
       <c r="G58">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H58">
-        <v>0.6173157459397136</v>
+        <v>0.6167235274770397</v>
       </c>
       <c r="I58">
-        <v>2.517128068781772</v>
+        <v>2.535272630526133</v>
       </c>
     </row>
     <row r="59">
@@ -2657,13 +2657,13 @@
         </is>
       </c>
       <c r="G59">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H59">
-        <v>0.7556325136435207</v>
+        <v>0.7644769950308844</v>
       </c>
       <c r="I59">
-        <v>3.242010652200534</v>
+        <v>3.290358748870047</v>
       </c>
     </row>
     <row r="60">
@@ -2696,13 +2696,13 @@
         </is>
       </c>
       <c r="G60">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H60">
-        <v>0.6886844340783442</v>
+        <v>0.6933392323028206</v>
       </c>
       <c r="I60">
-        <v>2.842293208330054</v>
+        <v>2.872597850523462</v>
       </c>
     </row>
     <row r="61">
@@ -2735,13 +2735,13 @@
         </is>
       </c>
       <c r="G61">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H61">
-        <v>0.6672109057241394</v>
+        <v>0.673710361127688</v>
       </c>
       <c r="I61">
-        <v>2.753669071091175</v>
+        <v>2.801882623978077</v>
       </c>
     </row>
     <row r="62">
@@ -2774,13 +2774,13 @@
         </is>
       </c>
       <c r="G62">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H62">
-        <v>0.7701660064865117</v>
+        <v>0.7869937134664898</v>
       </c>
       <c r="I62">
-        <v>3.724739922519791</v>
+        <v>3.86622851150471</v>
       </c>
     </row>
     <row r="63">
@@ -2813,13 +2813,13 @@
         </is>
       </c>
       <c r="G63">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H63">
-        <v>0.7991417879384982</v>
+        <v>0.8024111184028685</v>
       </c>
       <c r="I63">
-        <v>3.977115901011831</v>
+        <v>4.015222151781598</v>
       </c>
     </row>
     <row r="64">
@@ -2852,13 +2852,13 @@
         </is>
       </c>
       <c r="G64">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H64">
-        <v>0.6951845628862146</v>
+        <v>0.7002462582851799</v>
       </c>
       <c r="I64">
-        <v>3.150993197386024</v>
+        <v>3.188835254034625</v>
       </c>
     </row>
     <row r="65">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="G65">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H65">
-        <v>0.6635176131668894</v>
+        <v>0.6705458929493334</v>
       </c>
       <c r="I65">
-        <v>3.154090817576432</v>
+        <v>3.215797653795138</v>
       </c>
     </row>
     <row r="66">
@@ -2933,10 +2933,10 @@
         <v>101</v>
       </c>
       <c r="H66">
-        <v>0.6806848024035465</v>
+        <v>0.687823961699039</v>
       </c>
       <c r="I66">
-        <v>3.141442397074646</v>
+        <v>3.174390477612272</v>
       </c>
     </row>
     <row r="67">
@@ -2969,13 +2969,13 @@
         </is>
       </c>
       <c r="G67">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H67">
-        <v>0.6735258223378726</v>
+        <v>0.6811195508593799</v>
       </c>
       <c r="I67">
-        <v>2.925665118829712</v>
+        <v>2.984684013262914</v>
       </c>
     </row>
     <row r="68">
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="G68">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H68">
-        <v>0.7182428655607512</v>
+        <v>0.720962356613032</v>
       </c>
       <c r="I68">
-        <v>3.328861029603535</v>
+        <v>3.355330221633179</v>
       </c>
     </row>
     <row r="69">
@@ -3047,13 +3047,13 @@
         </is>
       </c>
       <c r="G69">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H69">
-        <v>0.7824257834548423</v>
+        <v>0.7806015798296719</v>
       </c>
       <c r="I69">
-        <v>3.587396771613795</v>
+        <v>3.617876770294431</v>
       </c>
     </row>
     <row r="70">
@@ -3086,13 +3086,13 @@
         </is>
       </c>
       <c r="G70">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H70">
-        <v>0.8014838948251169</v>
+        <v>0.8063612657003558</v>
       </c>
       <c r="I70">
-        <v>3.760039772628578</v>
+        <v>3.819086975455447</v>
       </c>
     </row>
     <row r="71">
@@ -3125,13 +3125,13 @@
         </is>
       </c>
       <c r="G71">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H71">
-        <v>0.6737237674980446</v>
+        <v>0.6735688994603852</v>
       </c>
       <c r="I71">
-        <v>2.908794357979708</v>
+        <v>2.951596857723382</v>
       </c>
     </row>
     <row r="72">
@@ -3164,13 +3164,13 @@
         </is>
       </c>
       <c r="G72">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H72">
-        <v>0.6941370378599813</v>
+        <v>0.7018638857479763</v>
       </c>
       <c r="I72">
-        <v>3.091927437821026</v>
+        <v>3.166009381307115</v>
       </c>
     </row>
     <row r="73">
@@ -3203,13 +3203,13 @@
         </is>
       </c>
       <c r="G73">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H73">
-        <v>0.6875635527854573</v>
+        <v>0.6937846851586358</v>
       </c>
       <c r="I73">
-        <v>3.012921801336875</v>
+        <v>3.082243403253752</v>
       </c>
     </row>
     <row r="74">
@@ -3242,13 +3242,13 @@
         </is>
       </c>
       <c r="G74">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H74">
-        <v>0.7600990186960861</v>
+        <v>0.7782518318345265</v>
       </c>
       <c r="I74">
-        <v>3.788034502727823</v>
+        <v>3.899536096285142</v>
       </c>
     </row>
     <row r="75">
@@ -3281,13 +3281,13 @@
         </is>
       </c>
       <c r="G75">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H75">
-        <v>0.7422771450424519</v>
+        <v>0.7497385352586883</v>
       </c>
       <c r="I75">
-        <v>3.589861526512408</v>
+        <v>3.649378149205773</v>
       </c>
     </row>
     <row r="76">
@@ -3320,13 +3320,13 @@
         </is>
       </c>
       <c r="G76">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H76">
-        <v>0.7003352552842432</v>
+        <v>0.7085646438608694</v>
       </c>
       <c r="I76">
-        <v>3.218124433305702</v>
+        <v>3.270111225390619</v>
       </c>
     </row>
     <row r="77">
@@ -3359,13 +3359,13 @@
         </is>
       </c>
       <c r="G77">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H77">
-        <v>0.5697103260901392</v>
+        <v>0.5714189866219679</v>
       </c>
       <c r="I77">
-        <v>2.537687650667315</v>
+        <v>2.577590768007928</v>
       </c>
     </row>
     <row r="78">
@@ -3398,13 +3398,13 @@
         </is>
       </c>
       <c r="G78">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H78">
-        <v>0.671220223585081</v>
+        <v>0.6788064162441971</v>
       </c>
       <c r="I78">
-        <v>3.091083361886276</v>
+        <v>3.139461220612338</v>
       </c>
     </row>
     <row r="79">
@@ -3437,13 +3437,13 @@
         </is>
       </c>
       <c r="G79">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H79">
-        <v>0.6858663988467288</v>
+        <v>0.6841752385990968</v>
       </c>
       <c r="I79">
-        <v>3.086268254085105</v>
+        <v>3.101092339702274</v>
       </c>
     </row>
     <row r="80">
@@ -3476,13 +3476,13 @@
         </is>
       </c>
       <c r="G80">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H80">
-        <v>0.6807768492081913</v>
+        <v>0.6804998556174666</v>
       </c>
       <c r="I80">
-        <v>3.048067249404314</v>
+        <v>3.069639242895393</v>
       </c>
     </row>
     <row r="81">
@@ -3515,13 +3515,13 @@
         </is>
       </c>
       <c r="G81">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H81">
-        <v>0.6830434538894696</v>
+        <v>0.6824059697218416</v>
       </c>
       <c r="I81">
-        <v>2.861716245598124</v>
+        <v>2.879417247299484</v>
       </c>
     </row>
     <row r="82">
@@ -3554,13 +3554,13 @@
         </is>
       </c>
       <c r="G82">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H82">
-        <v>0.7470942198248959</v>
+        <v>0.751561029935872</v>
       </c>
       <c r="I82">
-        <v>3.283067562770179</v>
+        <v>3.321028398318066</v>
       </c>
     </row>
     <row r="83">
@@ -3593,13 +3593,13 @@
         </is>
       </c>
       <c r="G83">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H83">
-        <v>0.7064801274963282</v>
+        <v>0.7090330748055066</v>
       </c>
       <c r="I83">
-        <v>3.02137962502169</v>
+        <v>3.042077649885759</v>
       </c>
     </row>
     <row r="84">
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="G84">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H84">
-        <v>0.7108747173874541</v>
+        <v>0.7096730807760996</v>
       </c>
       <c r="I84">
-        <v>2.835667906764442</v>
+        <v>2.869244648979861</v>
       </c>
     </row>
     <row r="85">
@@ -3671,13 +3671,13 @@
         </is>
       </c>
       <c r="G85">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H85">
-        <v>0.6075706447498552</v>
+        <v>0.6086224200518162</v>
       </c>
       <c r="I85">
-        <v>2.388861834718326</v>
+        <v>2.404815514217566</v>
       </c>
     </row>
     <row r="86">
@@ -3710,13 +3710,13 @@
         </is>
       </c>
       <c r="G86">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H86">
-        <v>0.7663388922114535</v>
+        <v>0.7848894874112923</v>
       </c>
       <c r="I86">
-        <v>3.536746344298481</v>
+        <v>3.667654228641512</v>
       </c>
     </row>
     <row r="87">
@@ -3749,13 +3749,13 @@
         </is>
       </c>
       <c r="G87">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H87">
-        <v>0.8492739500136953</v>
+        <v>0.8584254842905762</v>
       </c>
       <c r="I87">
-        <v>4.266650854335978</v>
+        <v>4.345860592993239</v>
       </c>
     </row>
     <row r="88">
@@ -3788,13 +3788,13 @@
         </is>
       </c>
       <c r="G88">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H88">
-        <v>0.7587162636089909</v>
+        <v>0.7644345603987036</v>
       </c>
       <c r="I88">
-        <v>3.625998720019529</v>
+        <v>3.659724145806017</v>
       </c>
     </row>
     <row r="89">
@@ -3827,13 +3827,13 @@
         </is>
       </c>
       <c r="G89">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H89">
-        <v>0.7068970813493534</v>
+        <v>0.7114441717614374</v>
       </c>
       <c r="I89">
-        <v>3.378348448688667</v>
+        <v>3.423600513071276</v>
       </c>
     </row>
     <row r="90">
@@ -3866,13 +3866,13 @@
         </is>
       </c>
       <c r="G90">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H90">
-        <v>0.7096043944851045</v>
+        <v>0.7121279114257302</v>
       </c>
       <c r="I90">
-        <v>3.315859875610877</v>
+        <v>3.353787906056951</v>
       </c>
     </row>
     <row r="91">
@@ -3905,13 +3905,13 @@
         </is>
       </c>
       <c r="G91">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H91">
-        <v>0.6481025693759834</v>
+        <v>0.6484132422766969</v>
       </c>
       <c r="I91">
-        <v>2.909096764217887</v>
+        <v>2.9319875921341</v>
       </c>
     </row>
     <row r="92">
@@ -3947,10 +3947,10 @@
         <v>74</v>
       </c>
       <c r="H92">
-        <v>0.6389526826755475</v>
+        <v>0.6383902166772819</v>
       </c>
       <c r="I92">
-        <v>2.750093937712985</v>
+        <v>2.747673047443736</v>
       </c>
     </row>
     <row r="93">
@@ -3986,10 +3986,10 @@
         <v>102</v>
       </c>
       <c r="H93">
-        <v>0.7269869673250213</v>
+        <v>0.7273091996880401</v>
       </c>
       <c r="I93">
-        <v>3.362294959490204</v>
+        <v>3.363785275408726</v>
       </c>
     </row>
     <row r="94">
@@ -4022,13 +4022,13 @@
         </is>
       </c>
       <c r="G94">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H94">
-        <v>0.7207571296014633</v>
+        <v>0.7216427527578532</v>
       </c>
       <c r="I94">
-        <v>3.319209244579014</v>
+        <v>3.358496758313577</v>
       </c>
     </row>
     <row r="95">
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="G95">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H95">
-        <v>0.6724947641873931</v>
+        <v>0.6728706912147461</v>
       </c>
       <c r="I95">
-        <v>2.903488150794473</v>
+        <v>2.92281935670505</v>
       </c>
     </row>
     <row r="96">
@@ -4100,13 +4100,13 @@
         </is>
       </c>
       <c r="G96">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H96">
-        <v>0.6483213044245375</v>
+        <v>0.648475034861891</v>
       </c>
       <c r="I96">
-        <v>2.754389977166882</v>
+        <v>2.782255835672232</v>
       </c>
     </row>
     <row r="97">
@@ -4139,13 +4139,13 @@
         </is>
       </c>
       <c r="G97">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H97">
-        <v>0.6317804721796764</v>
+        <v>0.6309599209764912</v>
       </c>
       <c r="I97">
-        <v>2.576108531641066</v>
+        <v>2.593796648483116</v>
       </c>
     </row>
     <row r="98">
@@ -4178,13 +4178,13 @@
         </is>
       </c>
       <c r="G98">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H98">
-        <v>0.7001993819992307</v>
+        <v>0.7240317556991617</v>
       </c>
       <c r="I98">
-        <v>3.41361015282975</v>
+        <v>3.572715825256362</v>
       </c>
     </row>
     <row r="99">
@@ -4217,13 +4217,13 @@
         </is>
       </c>
       <c r="G99">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H99">
-        <v>0.8324799564359733</v>
+        <v>0.8436373064828077</v>
       </c>
       <c r="I99">
-        <v>4.209223287765932</v>
+        <v>4.232764447401044</v>
       </c>
     </row>
     <row r="100">
@@ -4256,13 +4256,13 @@
         </is>
       </c>
       <c r="G100">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H100">
-        <v>0.7128390866079137</v>
+        <v>0.7261861576384001</v>
       </c>
       <c r="I100">
-        <v>3.469768811695311</v>
+        <v>3.567501975276178</v>
       </c>
     </row>
     <row r="101">
@@ -4295,13 +4295,13 @@
         </is>
       </c>
       <c r="G101">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H101">
-        <v>0.7329550942833546</v>
+        <v>0.7425958321922456</v>
       </c>
       <c r="I101">
-        <v>3.556320299556893</v>
+        <v>3.642636606226119</v>
       </c>
     </row>
     <row r="102">
@@ -4334,13 +4334,13 @@
         </is>
       </c>
       <c r="G102">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H102">
-        <v>0.7008831455158572</v>
+        <v>0.7010928021974746</v>
       </c>
       <c r="I102">
-        <v>3.255175302395426</v>
+        <v>3.276086661742057</v>
       </c>
     </row>
     <row r="103">
@@ -4373,13 +4373,13 @@
         </is>
       </c>
       <c r="G103">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H103">
-        <v>0.7354290743137496</v>
+        <v>0.7344556995539058</v>
       </c>
       <c r="I103">
-        <v>3.50224116858938</v>
+        <v>3.503856513212992</v>
       </c>
     </row>
     <row r="104">
@@ -4412,13 +4412,13 @@
         </is>
       </c>
       <c r="G104">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H104">
-        <v>0.6938596871089708</v>
+        <v>0.6942253671584635</v>
       </c>
       <c r="I104">
-        <v>3.16701720798827</v>
+        <v>3.175880408695365</v>
       </c>
     </row>
     <row r="105">
@@ -4454,10 +4454,10 @@
         <v>103</v>
       </c>
       <c r="H105">
-        <v>0.7810252866579764</v>
+        <v>0.7812364127198523</v>
       </c>
       <c r="I105">
-        <v>3.619840536614085</v>
+        <v>3.620819048693231</v>
       </c>
     </row>
     <row r="106">
@@ -4490,13 +4490,13 @@
         </is>
       </c>
       <c r="G106">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H106">
-        <v>0.7662146927222928</v>
+        <v>0.7648754722265713</v>
       </c>
       <c r="I106">
-        <v>3.536173148687875</v>
+        <v>3.53752826459586</v>
       </c>
     </row>
     <row r="107">
@@ -4529,13 +4529,13 @@
         </is>
       </c>
       <c r="G107">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H107">
-        <v>0.6955989135547537</v>
+        <v>0.6940653770039313</v>
       </c>
       <c r="I107">
-        <v>3.039383179010212</v>
+        <v>3.041412968236196</v>
       </c>
     </row>
     <row r="108">
@@ -4568,13 +4568,13 @@
         </is>
       </c>
       <c r="G108">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H108">
-        <v>0.7146177804714099</v>
+        <v>0.7146414217229102</v>
       </c>
       <c r="I108">
-        <v>3.140351501306482</v>
+        <v>3.166445216519139</v>
       </c>
     </row>
     <row r="109">
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="G109">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H109">
-        <v>0.7466729193651208</v>
+        <v>0.7465571801552492</v>
       </c>
       <c r="I109">
-        <v>3.317207383404747</v>
+        <v>3.325424956923177</v>
       </c>
     </row>
     <row r="110">
@@ -4646,13 +4646,13 @@
         </is>
       </c>
       <c r="G110">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="H110">
-        <v>0.8048639290324884</v>
+        <v>0.8188662298708335</v>
       </c>
       <c r="I110">
-        <v>4.000023458854655</v>
+        <v>4.140388939925785</v>
       </c>
     </row>
     <row r="111">
@@ -4685,13 +4685,13 @@
         </is>
       </c>
       <c r="G111">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H111">
-        <v>0.8500076234468327</v>
+        <v>0.8501681867123628</v>
       </c>
       <c r="I111">
-        <v>4.286949797664593</v>
+        <v>4.314751319747407</v>
       </c>
     </row>
     <row r="112">
@@ -4724,13 +4724,13 @@
         </is>
       </c>
       <c r="G112">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H112">
-        <v>0.7028888563318296</v>
+        <v>0.7145565355456991</v>
       </c>
       <c r="I112">
-        <v>3.382430758005641</v>
+        <v>3.461445542035065</v>
       </c>
     </row>
     <row r="113">
@@ -4763,13 +4763,13 @@
         </is>
       </c>
       <c r="G113">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H113">
-        <v>0.6865356683548191</v>
+        <v>0.6949526090734836</v>
       </c>
       <c r="I113">
-        <v>3.214450091338696</v>
+        <v>3.260264450826505</v>
       </c>
     </row>
     <row r="114">
@@ -4802,13 +4802,13 @@
         </is>
       </c>
       <c r="G114">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H114">
-        <v>0.7170071671537496</v>
+        <v>0.720632654771067</v>
       </c>
       <c r="I114">
-        <v>3.272670366667693</v>
+        <v>3.30407728619338</v>
       </c>
     </row>
     <row r="115">
@@ -4841,13 +4841,13 @@
         </is>
       </c>
       <c r="G115">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H115">
-        <v>0.6832253861903235</v>
+        <v>0.6904913885493092</v>
       </c>
       <c r="I115">
-        <v>3.066750317178172</v>
+        <v>3.107079827473954</v>
       </c>
     </row>
     <row r="116">
@@ -4880,13 +4880,13 @@
         </is>
       </c>
       <c r="G116">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H116">
-        <v>0.6811889780203952</v>
+        <v>0.6850695086481121</v>
       </c>
       <c r="I116">
-        <v>2.967742033185118</v>
+        <v>2.957779460534384</v>
       </c>
     </row>
     <row r="117">
@@ -4922,10 +4922,10 @@
         <v>67</v>
       </c>
       <c r="H117">
-        <v>0.6404253770799917</v>
+        <v>0.6414727458779084</v>
       </c>
       <c r="I117">
-        <v>2.692791856278917</v>
+        <v>2.697195720133298</v>
       </c>
     </row>
     <row r="118">
@@ -4958,13 +4958,13 @@
         </is>
       </c>
       <c r="G118">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H118">
-        <v>0.6613145923972297</v>
+        <v>0.6576894869769447</v>
       </c>
       <c r="I118">
-        <v>2.750330071099735</v>
+        <v>2.76538213174299</v>
       </c>
     </row>
     <row r="119">
@@ -4997,13 +4997,13 @@
         </is>
       </c>
       <c r="G119">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H119">
-        <v>0.6641044602438387</v>
+        <v>0.6627682746730608</v>
       </c>
       <c r="I119">
-        <v>2.849313251361934</v>
+        <v>2.861494147929908</v>
       </c>
     </row>
     <row r="120">
@@ -5036,13 +5036,13 @@
         </is>
       </c>
       <c r="G120">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H120">
-        <v>0.6132295521527591</v>
+        <v>0.6142801270551188</v>
       </c>
       <c r="I120">
-        <v>2.489983648899182</v>
+        <v>2.525228119591949</v>
       </c>
     </row>
     <row r="121">
@@ -5075,13 +5075,13 @@
         </is>
       </c>
       <c r="G121">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H121">
-        <v>0.5757977275296997</v>
+        <v>0.5807389145593062</v>
       </c>
       <c r="I121">
-        <v>2.376394600118648</v>
+        <v>2.441828627840635</v>
       </c>
     </row>
     <row r="122">
@@ -5114,13 +5114,13 @@
         </is>
       </c>
       <c r="G122">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H122">
-        <v>0.8011063479733475</v>
+        <v>0.8164261355676478</v>
       </c>
       <c r="I122">
-        <v>3.880709025732492</v>
+        <v>4.034486026448063</v>
       </c>
     </row>
     <row r="123">
@@ -5153,13 +5153,13 @@
         </is>
       </c>
       <c r="G123">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H123">
-        <v>0.8247067994549636</v>
+        <v>0.8327646343291322</v>
       </c>
       <c r="I123">
-        <v>4.0928917112139</v>
+        <v>4.1837100248558</v>
       </c>
     </row>
     <row r="124">
@@ -5192,13 +5192,13 @@
         </is>
       </c>
       <c r="G124">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H124">
-        <v>0.7461364597149381</v>
+        <v>0.7528252796240369</v>
       </c>
       <c r="I124">
-        <v>3.670977149862421</v>
+        <v>3.736154896506064</v>
       </c>
     </row>
     <row r="125">
@@ -5231,13 +5231,13 @@
         </is>
       </c>
       <c r="G125">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H125">
-        <v>0.6726500842715757</v>
+        <v>0.6724917209760517</v>
       </c>
       <c r="I125">
-        <v>3.155635548328712</v>
+        <v>3.179129169927085</v>
       </c>
     </row>
     <row r="126">
@@ -5270,13 +5270,13 @@
         </is>
       </c>
       <c r="G126">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H126">
-        <v>0.6929670478725881</v>
+        <v>0.6969919467264176</v>
       </c>
       <c r="I126">
-        <v>3.191231188735026</v>
+        <v>3.230368780055534</v>
       </c>
     </row>
     <row r="127">
@@ -5309,13 +5309,13 @@
         </is>
       </c>
       <c r="G127">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H127">
-        <v>0.6948853809592356</v>
+        <v>0.6973913006657377</v>
       </c>
       <c r="I127">
-        <v>3.186026873101707</v>
+        <v>3.190363639468304</v>
       </c>
     </row>
     <row r="128">
@@ -5351,10 +5351,10 @@
         <v>107</v>
       </c>
       <c r="H128">
-        <v>0.7578348849155346</v>
+        <v>0.7574900867473392</v>
       </c>
       <c r="I128">
-        <v>3.54123270199443</v>
+        <v>3.539621519172017</v>
       </c>
     </row>
     <row r="129">
@@ -5387,13 +5387,13 @@
         </is>
       </c>
       <c r="G129">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H129">
-        <v>0.6738381117069071</v>
+        <v>0.6718149041643059</v>
       </c>
       <c r="I129">
-        <v>2.862798011498319</v>
+        <v>2.863731873077627</v>
       </c>
     </row>
     <row r="130">
@@ -5426,13 +5426,13 @@
         </is>
       </c>
       <c r="G130">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H130">
-        <v>0.6561414418788931</v>
+        <v>0.6548369182463502</v>
       </c>
       <c r="I130">
-        <v>2.74900610340796</v>
+        <v>2.763089422174251</v>
       </c>
     </row>
     <row r="131">
@@ -5465,13 +5465,13 @@
         </is>
       </c>
       <c r="G131">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H131">
-        <v>0.7271221026047777</v>
+        <v>0.7288688244685179</v>
       </c>
       <c r="I131">
-        <v>3.109658460597569</v>
+        <v>3.146882485970009</v>
       </c>
     </row>
     <row r="132">
@@ -5504,13 +5504,13 @@
         </is>
       </c>
       <c r="G132">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H132">
-        <v>0.693158571336785</v>
+        <v>0.6924871291118966</v>
       </c>
       <c r="I132">
-        <v>2.904095095377424</v>
+        <v>2.932064257722564</v>
       </c>
     </row>
     <row r="133">
@@ -5543,13 +5543,13 @@
         </is>
       </c>
       <c r="G133">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H133">
-        <v>0.7399353787983186</v>
+        <v>0.7510311862631919</v>
       </c>
       <c r="I133">
-        <v>3.16445656476808</v>
+        <v>3.242568219586405</v>
       </c>
     </row>
     <row r="134">
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="G134">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H134">
-        <v>0.7591080667573505</v>
+        <v>0.7787362029934122</v>
       </c>
       <c r="I134">
-        <v>3.677261494212503</v>
+        <v>3.814125168683786</v>
       </c>
     </row>
     <row r="135">
@@ -5621,13 +5621,13 @@
         </is>
       </c>
       <c r="G135">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H135">
-        <v>0.8208454799970722</v>
+        <v>0.8310741782437121</v>
       </c>
       <c r="I135">
-        <v>4.032530557741972</v>
+        <v>4.094913307390327</v>
       </c>
     </row>
     <row r="136">
@@ -5660,13 +5660,13 @@
         </is>
       </c>
       <c r="G136">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H136">
-        <v>0.7375496904260008</v>
+        <v>0.7464248433664228</v>
       </c>
       <c r="I136">
-        <v>3.595700276492677</v>
+        <v>3.672395991927046</v>
       </c>
     </row>
     <row r="137">
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="G137">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H137">
-        <v>0.6633901156801238</v>
+        <v>0.6689535234262757</v>
       </c>
       <c r="I137">
-        <v>3.141947236564448</v>
+        <v>3.197011499606248</v>
       </c>
     </row>
     <row r="138">
@@ -5738,13 +5738,13 @@
         </is>
       </c>
       <c r="G138">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H138">
-        <v>0.6715040832561774</v>
+        <v>0.6747420884651592</v>
       </c>
       <c r="I138">
-        <v>3.118727453011261</v>
+        <v>3.152954286805042</v>
       </c>
     </row>
     <row r="139">
@@ -5777,13 +5777,13 @@
         </is>
       </c>
       <c r="G139">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H139">
-        <v>0.6259497185286405</v>
+        <v>0.6274517468061976</v>
       </c>
       <c r="I139">
-        <v>2.742928338559122</v>
+        <v>2.725528299728326</v>
       </c>
     </row>
     <row r="140">
@@ -5819,10 +5819,10 @@
         <v>81</v>
       </c>
       <c r="H140">
-        <v>0.6504956804421032</v>
+        <v>0.6486447222999311</v>
       </c>
       <c r="I140">
-        <v>2.858570193036873</v>
+        <v>2.850436251593671</v>
       </c>
     </row>
     <row r="141">
@@ -5855,13 +5855,13 @@
         </is>
       </c>
       <c r="G141">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H141">
-        <v>0.7242170466874761</v>
+        <v>0.7229932684601084</v>
       </c>
       <c r="I141">
-        <v>3.297995273413287</v>
+        <v>3.307485242608501</v>
       </c>
     </row>
     <row r="142">
@@ -5894,13 +5894,13 @@
         </is>
       </c>
       <c r="G142">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H142">
-        <v>0.6322307528556947</v>
+        <v>0.6322715251902039</v>
       </c>
       <c r="I142">
-        <v>2.71256040257407</v>
+        <v>2.721337800998118</v>
       </c>
     </row>
     <row r="143">
@@ -5933,13 +5933,13 @@
         </is>
       </c>
       <c r="G143">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H143">
-        <v>0.5454963767108637</v>
+        <v>0.5440919942605696</v>
       </c>
       <c r="I143">
-        <v>2.260064981471537</v>
+        <v>2.295800362107108</v>
       </c>
     </row>
     <row r="144">
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="G144">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H144">
-        <v>0.5272136081783648</v>
+        <v>0.5322058349655826</v>
       </c>
       <c r="I144">
-        <v>2.1407208103928</v>
+        <v>2.221633262444506</v>
       </c>
     </row>
     <row r="145">
@@ -6011,13 +6011,13 @@
         </is>
       </c>
       <c r="G145">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H145">
-        <v>0.5868067585599628</v>
+        <v>0.5950023275211334</v>
       </c>
       <c r="I145">
-        <v>2.382695401336201</v>
+        <v>2.465174805436596</v>
       </c>
     </row>
     <row r="146">
@@ -6050,13 +6050,13 @@
         </is>
       </c>
       <c r="G146">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H146">
-        <v>0.7623842577614642</v>
+        <v>0.7787873933168559</v>
       </c>
       <c r="I146">
-        <v>3.722571319547261</v>
+        <v>3.820166158202982</v>
       </c>
     </row>
     <row r="147">
@@ -6089,13 +6089,13 @@
         </is>
       </c>
       <c r="G147">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H147">
-        <v>0.7914108307194853</v>
+        <v>0.7924304543688871</v>
       </c>
       <c r="I147">
-        <v>3.156925178018206</v>
+        <v>3.189811269283823</v>
       </c>
     </row>
     <row r="148">
@@ -6128,13 +6128,13 @@
         </is>
       </c>
       <c r="G148">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H148">
-        <v>0.6815125041062879</v>
+        <v>0.6947866893263034</v>
       </c>
       <c r="I148">
-        <v>3.227778464509648</v>
+        <v>3.314608176052398</v>
       </c>
     </row>
     <row r="149">
@@ -6167,13 +6167,13 @@
         </is>
       </c>
       <c r="G149">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H149">
-        <v>0.6553334153780994</v>
+        <v>0.6575494759923042</v>
       </c>
       <c r="I149">
-        <v>3.10378910509482</v>
+        <v>3.131364975410474</v>
       </c>
     </row>
     <row r="150">
@@ -6206,13 +6206,13 @@
         </is>
       </c>
       <c r="G150">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H150">
-        <v>0.5236965564029781</v>
+        <v>0.527191415204826</v>
       </c>
       <c r="I150">
-        <v>2.126440022093701</v>
+        <v>2.131461919635363</v>
       </c>
     </row>
     <row r="151">
@@ -6245,13 +6245,13 @@
         </is>
       </c>
       <c r="G151">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H151">
-        <v>0.7287860173997396</v>
+        <v>0.7280172914378721</v>
       </c>
       <c r="I151">
-        <v>3.348859095054076</v>
+        <v>3.359887538330126</v>
       </c>
     </row>
     <row r="152">
@@ -6284,13 +6284,13 @@
         </is>
       </c>
       <c r="G152">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H152">
-        <v>0.7124063477820425</v>
+        <v>0.7103136091063388</v>
       </c>
       <c r="I152">
-        <v>3.197733042682519</v>
+        <v>3.21188796377952</v>
       </c>
     </row>
     <row r="153">
@@ -6323,13 +6323,13 @@
         </is>
       </c>
       <c r="G153">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H153">
-        <v>0.6960581990097071</v>
+        <v>0.6951746355160442</v>
       </c>
       <c r="I153">
-        <v>3.132129415016548</v>
+        <v>3.150948200593021</v>
       </c>
     </row>
     <row r="154">
@@ -6362,13 +6362,13 @@
         </is>
       </c>
       <c r="G154">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H154">
-        <v>0.6937561327130476</v>
+        <v>0.6939811856189136</v>
       </c>
       <c r="I154">
-        <v>3.106179873266157</v>
+        <v>3.12278325007525</v>
       </c>
     </row>
     <row r="155">
@@ -6401,13 +6401,13 @@
         </is>
       </c>
       <c r="G155">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H155">
-        <v>0.6704530974283538</v>
+        <v>0.6722203170954529</v>
       </c>
       <c r="I155">
-        <v>2.903553582131212</v>
+        <v>2.945687333881197</v>
       </c>
     </row>
     <row r="156">
@@ -6440,13 +6440,13 @@
         </is>
       </c>
       <c r="G156">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H156">
-        <v>0.7128306652031012</v>
+        <v>0.7209945064432771</v>
       </c>
       <c r="I156">
-        <v>3.246143093892644</v>
+        <v>3.327476539216206</v>
       </c>
     </row>
     <row r="157">
@@ -6479,13 +6479,13 @@
         </is>
       </c>
       <c r="G157">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H157">
-        <v>0.6520992798850472</v>
+        <v>0.6629328160515721</v>
       </c>
       <c r="I157">
-        <v>2.770440687935437</v>
+        <v>2.896650369426457</v>
       </c>
     </row>
     <row r="158">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="G158">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H158">
-        <v>0.8113931296797282</v>
+        <v>0.8223175811976166</v>
       </c>
       <c r="I158">
-        <v>4.015389775487451</v>
+        <v>4.114833022747819</v>
       </c>
     </row>
     <row r="159">
@@ -6557,13 +6557,13 @@
         </is>
       </c>
       <c r="G159">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H159">
-        <v>0.7523445552823304</v>
+        <v>0.7667389326884766</v>
       </c>
       <c r="I159">
-        <v>3.632555551454267</v>
+        <v>3.695897542869945</v>
       </c>
     </row>
     <row r="160">
@@ -6596,13 +6596,13 @@
         </is>
       </c>
       <c r="G160">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H160">
-        <v>0.6119949763602871</v>
+        <v>0.6209281721407505</v>
       </c>
       <c r="I160">
-        <v>2.865440789659649</v>
+        <v>2.918660681714971</v>
       </c>
     </row>
     <row r="161">
@@ -6635,13 +6635,13 @@
         </is>
       </c>
       <c r="G161">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H161">
-        <v>0.6414735021621625</v>
+        <v>0.6462185434954655</v>
       </c>
       <c r="I161">
-        <v>2.927908419468405</v>
+        <v>2.988743195106687</v>
       </c>
     </row>
     <row r="162">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="G162">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H162">
-        <v>0.6409311980830581</v>
+        <v>0.6410453786547798</v>
       </c>
       <c r="I162">
-        <v>2.854930149265791</v>
+        <v>2.862849760960383</v>
       </c>
     </row>
     <row r="163">
@@ -6713,13 +6713,13 @@
         </is>
       </c>
       <c r="G163">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H163">
-        <v>0.8203887689881136</v>
+        <v>0.820444949186339</v>
       </c>
       <c r="I163">
-        <v>3.947861999447837</v>
+        <v>3.954775664156672</v>
       </c>
     </row>
     <row r="164">
@@ -6752,13 +6752,13 @@
         </is>
       </c>
       <c r="G164">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H164">
-        <v>0.7208117482077773</v>
+        <v>0.7204408698724368</v>
       </c>
       <c r="I164">
-        <v>3.347731523370383</v>
+        <v>3.359732117559226</v>
       </c>
     </row>
     <row r="165">
@@ -6791,13 +6791,13 @@
         </is>
       </c>
       <c r="G165">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H165">
-        <v>0.6833784738026289</v>
+        <v>0.6816960070230856</v>
       </c>
       <c r="I165">
-        <v>2.913023668681672</v>
+        <v>2.934063988004728</v>
       </c>
     </row>
     <row r="166">
@@ -6830,13 +6830,13 @@
         </is>
       </c>
       <c r="G166">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H166">
-        <v>0.6792566829527924</v>
+        <v>0.6775242171570405</v>
       </c>
       <c r="I166">
-        <v>2.923564978422766</v>
+        <v>2.934176716093392</v>
       </c>
     </row>
     <row r="167">
@@ -6869,13 +6869,13 @@
         </is>
       </c>
       <c r="G167">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H167">
-        <v>0.7057557417173544</v>
+        <v>0.7045269963393717</v>
       </c>
       <c r="I167">
-        <v>3.056439920753856</v>
+        <v>3.069418983592846</v>
       </c>
     </row>
     <row r="168">
@@ -6908,13 +6908,13 @@
         </is>
       </c>
       <c r="G168">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H168">
-        <v>0.7158672650661951</v>
+        <v>0.7138749770111795</v>
       </c>
       <c r="I168">
-        <v>3.020607440830157</v>
+        <v>3.043020499228887</v>
       </c>
     </row>
     <row r="169">
@@ -6947,13 +6947,13 @@
         </is>
       </c>
       <c r="G169">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H169">
-        <v>0.7002644751777206</v>
+        <v>0.7036482170143045</v>
       </c>
       <c r="I169">
-        <v>2.878698929017132</v>
+        <v>2.926390666376986</v>
       </c>
     </row>
     <row r="170">
@@ -6986,13 +6986,13 @@
         </is>
       </c>
       <c r="G170">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H170">
-        <v>0.7508888073654691</v>
+        <v>0.7667005791666384</v>
       </c>
       <c r="I170">
-        <v>3.654977138312927</v>
+        <v>3.788760107448983</v>
       </c>
     </row>
     <row r="171">
@@ -7025,13 +7025,13 @@
         </is>
       </c>
       <c r="G171">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H171">
-        <v>0.7718104438395387</v>
+        <v>0.7736873157186283</v>
       </c>
       <c r="I171">
-        <v>3.682064217427308</v>
+        <v>3.710442313971519</v>
       </c>
     </row>
     <row r="172">
@@ -7064,13 +7064,13 @@
         </is>
       </c>
       <c r="G172">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H172">
-        <v>0.7552109535624472</v>
+        <v>0.761617995488575</v>
       </c>
       <c r="I172">
-        <v>3.710090780779939</v>
+        <v>3.795604485529092</v>
       </c>
     </row>
     <row r="173">
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="G173">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H173">
-        <v>0.6815963682744411</v>
+        <v>0.6897880343360897</v>
       </c>
       <c r="I173">
-        <v>3.197605678839375</v>
+        <v>3.254764061447701</v>
       </c>
     </row>
     <row r="174">
@@ -7142,13 +7142,13 @@
         </is>
       </c>
       <c r="G174">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H174">
-        <v>0.7049975425241588</v>
+        <v>0.7065717344565302</v>
       </c>
       <c r="I174">
-        <v>3.326530108666058</v>
+        <v>3.376793575709765</v>
       </c>
     </row>
     <row r="175">
@@ -7181,13 +7181,13 @@
         </is>
       </c>
       <c r="G175">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H175">
-        <v>0.7234414473258796</v>
+        <v>0.7226302219810197</v>
       </c>
       <c r="I175">
-        <v>3.27907033747534</v>
+        <v>3.290769069051535</v>
       </c>
     </row>
     <row r="176">
@@ -7220,13 +7220,13 @@
         </is>
       </c>
       <c r="G176">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H176">
-        <v>0.6658292565863982</v>
+        <v>0.6635338592058415</v>
       </c>
       <c r="I176">
-        <v>2.883528960436777</v>
+        <v>2.907623044047947</v>
       </c>
     </row>
     <row r="177">
@@ -7259,13 +7259,13 @@
         </is>
       </c>
       <c r="G177">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H177">
-        <v>0.6921639602543286</v>
+        <v>0.6896197224096277</v>
       </c>
       <c r="I177">
-        <v>3.129819088923049</v>
+        <v>3.125770004262368</v>
       </c>
     </row>
     <row r="178">
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="G178">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H178">
-        <v>0.7088898908341986</v>
+        <v>0.707761368586039</v>
       </c>
       <c r="I178">
-        <v>3.165837118708609</v>
+        <v>3.19261209783171</v>
       </c>
     </row>
     <row r="179">
@@ -7337,13 +7337,13 @@
         </is>
       </c>
       <c r="G179">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H179">
-        <v>0.7013056733100647</v>
+        <v>0.7012868118089877</v>
       </c>
       <c r="I179">
-        <v>3.115656530714746</v>
+        <v>3.131882466363147</v>
       </c>
     </row>
     <row r="180">
@@ -7376,13 +7376,13 @@
         </is>
       </c>
       <c r="G180">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H180">
-        <v>0.6750163224018212</v>
+        <v>0.6735285364362145</v>
       </c>
       <c r="I180">
-        <v>2.867803634029794</v>
+        <v>2.880456671967229</v>
       </c>
     </row>
     <row r="181">
@@ -7418,10 +7418,10 @@
         <v>76</v>
       </c>
       <c r="H181">
-        <v>0.7626764911932788</v>
+        <v>0.7789086365397254</v>
       </c>
       <c r="I181">
-        <v>3.302948508263327</v>
+        <v>3.373245601299557</v>
       </c>
     </row>
     <row r="182">
@@ -7454,13 +7454,13 @@
         </is>
       </c>
       <c r="G182">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H182">
-        <v>0.8112003459627722</v>
+        <v>0.8234924529239175</v>
       </c>
       <c r="I182">
-        <v>4.002846961699898</v>
+        <v>4.142527663168949</v>
       </c>
     </row>
     <row r="183">
@@ -7493,13 +7493,13 @@
         </is>
       </c>
       <c r="G183">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H183">
-        <v>0.8227928430078513</v>
+        <v>0.8259171179184002</v>
       </c>
       <c r="I183">
-        <v>4.023744262510544</v>
+        <v>4.057445764554868</v>
       </c>
     </row>
     <row r="184">
@@ -7532,13 +7532,13 @@
         </is>
       </c>
       <c r="G184">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H184">
-        <v>0.6987742060087069</v>
+        <v>0.7001945033711181</v>
       </c>
       <c r="I184">
-        <v>3.284574435466112</v>
+        <v>3.310090965965961</v>
       </c>
     </row>
     <row r="185">
@@ -7571,13 +7571,13 @@
         </is>
       </c>
       <c r="G185">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H185">
-        <v>0.6220786839878467</v>
+        <v>0.6213168668727531</v>
       </c>
       <c r="I185">
-        <v>2.741326110042061</v>
+        <v>2.774744040024058</v>
       </c>
     </row>
     <row r="186">
@@ -7610,13 +7610,13 @@
         </is>
       </c>
       <c r="G186">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H186">
-        <v>0.6763654009913579</v>
+        <v>0.6779685131785222</v>
       </c>
       <c r="I186">
-        <v>2.980552430732222</v>
+        <v>3.011977666933434</v>
       </c>
     </row>
     <row r="187">
@@ -7649,13 +7649,13 @@
         </is>
       </c>
       <c r="G187">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H187">
-        <v>0.673286071430776</v>
+        <v>0.6710156878415123</v>
       </c>
       <c r="I187">
-        <v>2.924623687539571</v>
+        <v>2.956977746827454</v>
       </c>
     </row>
     <row r="188">
@@ -7688,13 +7688,13 @@
         </is>
       </c>
       <c r="G188">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H188">
-        <v>0.6734622431974562</v>
+        <v>0.6739776039932932</v>
       </c>
       <c r="I188">
-        <v>2.8894624395835</v>
+        <v>2.900843478948917</v>
       </c>
     </row>
     <row r="189">
@@ -7727,13 +7727,13 @@
         </is>
       </c>
       <c r="G189">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H189">
-        <v>0.661797549115847</v>
+        <v>0.6597322482319928</v>
       </c>
       <c r="I189">
-        <v>2.891689879752176</v>
+        <v>2.890964283505873</v>
       </c>
     </row>
     <row r="190">
@@ -7766,13 +7766,13 @@
         </is>
       </c>
       <c r="G190">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H190">
-        <v>0.6668125405996459</v>
+        <v>0.6696314670328459</v>
       </c>
       <c r="I190">
-        <v>2.80374176797667</v>
+        <v>2.825515134773473</v>
       </c>
     </row>
     <row r="191">
@@ -7805,13 +7805,13 @@
         </is>
       </c>
       <c r="G191">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H191">
-        <v>0.649158279603346</v>
+        <v>0.6471967370609951</v>
       </c>
       <c r="I191">
-        <v>2.689550211149207</v>
+        <v>2.711530878451628</v>
       </c>
     </row>
     <row r="192">
@@ -7844,13 +7844,13 @@
         </is>
       </c>
       <c r="G192">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H192">
-        <v>0.782263752876477</v>
+        <v>0.7826683762331967</v>
       </c>
       <c r="I192">
-        <v>3.475325044623511</v>
+        <v>3.513113738999525</v>
       </c>
     </row>
     <row r="193">
@@ -7883,13 +7883,13 @@
         </is>
       </c>
       <c r="G193">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H193">
-        <v>0.7464556344913187</v>
+        <v>0.7523872318633956</v>
       </c>
       <c r="I193">
-        <v>3.212793640039656</v>
+        <v>3.287516774489121</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Diversity_HP.xlsx
+++ b/Data/Diversity_HP.xlsx
@@ -426,10 +426,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>198.4423515647997</v>
+        <v>198.4423515647993</v>
       </c>
       <c r="C2">
-        <v>12.04705411746882</v>
+        <v>12.04705411746879</v>
       </c>
       <c r="D2">
         <v>4.080500688675966</v>
@@ -464,11 +464,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L2">
-        <v>0.4771162831604004</v>
+        <v>0.4771162831604007</v>
       </c>
     </row>
     <row r="3">
@@ -516,11 +516,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L3">
-        <v>0.5099929422525508</v>
+        <v>0.5099929422525513</v>
       </c>
     </row>
     <row r="4">
@@ -533,7 +533,7 @@
         <v>173.8670485157696</v>
       </c>
       <c r="C4">
-        <v>21.79925444727053</v>
+        <v>21.79925444727051</v>
       </c>
       <c r="D4">
         <v>10.61182532908284</v>
@@ -568,11 +568,11 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L4">
-        <v>0.6060962077036361</v>
+        <v>0.6060962077036366</v>
       </c>
     </row>
     <row r="5">
@@ -620,11 +620,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L5">
-        <v>0.5910030933967725</v>
+        <v>0.591003093396773</v>
       </c>
     </row>
     <row r="6">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>197.9356274805615</v>
+        <v>197.9356274805612</v>
       </c>
       <c r="C6">
-        <v>33.4490119641999</v>
+        <v>33.4490119641994</v>
       </c>
       <c r="D6">
         <v>14.92873042280378</v>
@@ -672,11 +672,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L6">
-        <v>0.6722508993076528</v>
+        <v>0.6722508993076529</v>
       </c>
     </row>
     <row r="7">
@@ -724,11 +724,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L7">
-        <v>0.6750921350683445</v>
+        <v>0.675092135068345</v>
       </c>
     </row>
     <row r="8">
@@ -744,7 +744,7 @@
         <v>35.06671403757411</v>
       </c>
       <c r="D8">
-        <v>15.63400741881585</v>
+        <v>15.63400741881586</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -776,11 +776,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L8">
-        <v>0.6828295418849268</v>
+        <v>0.6828295418849272</v>
       </c>
     </row>
     <row r="9">
@@ -796,7 +796,7 @@
         <v>39.89343631643401</v>
       </c>
       <c r="D9">
-        <v>18.59341339617175</v>
+        <v>18.59341339617174</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -828,11 +828,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L9">
-        <v>0.7162957569895351</v>
+        <v>0.7162957569895352</v>
       </c>
     </row>
     <row r="10">
@@ -845,10 +845,10 @@
         <v>139.5690710934051</v>
       </c>
       <c r="C10">
-        <v>20.97633600837066</v>
+        <v>20.97633600837083</v>
       </c>
       <c r="D10">
-        <v>9.52055202918671</v>
+        <v>9.520552029186597</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -880,11 +880,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L10">
-        <v>0.6273917399201915</v>
+        <v>0.6273917399201918</v>
       </c>
     </row>
     <row r="11">
@@ -932,11 +932,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L11">
-        <v>0.6663738718519936</v>
+        <v>0.666373871851994</v>
       </c>
     </row>
     <row r="12">
@@ -949,10 +949,10 @@
         <v>132.4149080672402</v>
       </c>
       <c r="C12">
-        <v>24.6125711129824</v>
+        <v>24.61257111298202</v>
       </c>
       <c r="D12">
-        <v>12.05619501897916</v>
+        <v>12.05619501897923</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -984,11 +984,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L12">
-        <v>0.6632472915165308</v>
+        <v>0.6632472915165311</v>
       </c>
     </row>
     <row r="13">
@@ -1001,7 +1001,7 @@
         <v>122.4430480409575</v>
       </c>
       <c r="C13">
-        <v>14.35545178345199</v>
+        <v>14.355451783452</v>
       </c>
       <c r="D13">
         <v>5.429243368697846</v>
@@ -1036,11 +1036,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L13">
-        <v>0.5632769429874608</v>
+        <v>0.5632769429874609</v>
       </c>
     </row>
     <row r="14">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>187.6579694145309</v>
+        <v>187.6579694145308</v>
       </c>
       <c r="C14">
         <v>10.36522985928614</v>
@@ -1088,11 +1088,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L14">
-        <v>0.4546341366373829</v>
+        <v>0.4546341366373832</v>
       </c>
     </row>
     <row r="15">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L15">
-        <v>0.4679651845414149</v>
+        <v>0.4679651845414155</v>
       </c>
     </row>
     <row r="16">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L16">
-        <v>0.4145462136716004</v>
+        <v>0.4145462136716008</v>
       </c>
     </row>
     <row r="17">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L17">
-        <v>0.4449649533481146</v>
+        <v>0.444964953348115</v>
       </c>
     </row>
     <row r="18">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L18">
-        <v>0.6228167839288421</v>
+        <v>0.6228167839288425</v>
       </c>
     </row>
     <row r="19">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L19">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L20">
-        <v>0.661907746857169</v>
+        <v>0.6619077468571695</v>
       </c>
     </row>
     <row r="21">
@@ -1417,10 +1417,10 @@
         <v>198.976377253579</v>
       </c>
       <c r="C21">
-        <v>46.50353376003722</v>
+        <v>46.50353376003724</v>
       </c>
       <c r="D21">
-        <v>20.83783397921113</v>
+        <v>20.83783397921112</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1452,11 +1452,11 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L21">
-        <v>0.7324205860324078</v>
+        <v>0.7324205860324081</v>
       </c>
     </row>
     <row r="22">
@@ -1469,10 +1469,10 @@
         <v>211.0957891757774</v>
       </c>
       <c r="C22">
-        <v>48.53090584227305</v>
+        <v>48.53090584227266</v>
       </c>
       <c r="D22">
-        <v>22.87890672979829</v>
+        <v>22.87890672979837</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1504,11 +1504,11 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L22">
-        <v>0.7295784423216322</v>
+        <v>0.7295784423216324</v>
       </c>
     </row>
     <row r="23">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L23">
-        <v>0.6360419067898819</v>
+        <v>0.6360419067898824</v>
       </c>
     </row>
     <row r="24">
@@ -1573,7 +1573,7 @@
         <v>164.9487039733372</v>
       </c>
       <c r="C24">
-        <v>27.5627116354348</v>
+        <v>27.56271163543478</v>
       </c>
       <c r="D24">
         <v>11.47938106573338</v>
@@ -1608,11 +1608,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L24">
-        <v>0.6572827587294623</v>
+        <v>0.6572827587294625</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>132.9087623399086</v>
       </c>
       <c r="C25">
-        <v>14.5363973140083</v>
+        <v>14.53639731400827</v>
       </c>
       <c r="D25">
         <v>6.599192725045882</v>
@@ -1660,11 +1660,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L25">
-        <v>0.5577006111117543</v>
+        <v>0.5577006111117545</v>
       </c>
     </row>
     <row r="26">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L26">
-        <v>0.4994165842872644</v>
+        <v>0.4994165842872648</v>
       </c>
     </row>
     <row r="27">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L27">
-        <v>0.5378444979323421</v>
+        <v>0.5378444979323425</v>
       </c>
     </row>
     <row r="28">
@@ -1778,13 +1778,13 @@
         </is>
       </c>
       <c r="B28">
-        <v>191.761722859453</v>
+        <v>191.7617228594529</v>
       </c>
       <c r="C28">
-        <v>24.52664362214939</v>
+        <v>24.52664362214926</v>
       </c>
       <c r="D28">
-        <v>9.391253190726825</v>
+        <v>9.391253190726827</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1816,11 +1816,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L28">
-        <v>0.6116877685691983</v>
+        <v>0.6116877685691989</v>
       </c>
     </row>
     <row r="29">
@@ -1830,10 +1830,10 @@
         </is>
       </c>
       <c r="B29">
-        <v>206.2851778200608</v>
+        <v>206.2851778200609</v>
       </c>
       <c r="C29">
-        <v>26.50138172083568</v>
+        <v>26.50138172083578</v>
       </c>
       <c r="D29">
         <v>12.45585074769385</v>
@@ -1868,11 +1868,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L29">
-        <v>0.6220647126374639</v>
+        <v>0.6220647126374641</v>
       </c>
     </row>
     <row r="30">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="B30">
-        <v>166.447323829521</v>
+        <v>166.4473238295209</v>
       </c>
       <c r="C30">
-        <v>28.08023479561427</v>
+        <v>28.08023479561389</v>
       </c>
       <c r="D30">
-        <v>12.3839377800884</v>
+        <v>12.38393778008847</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L30">
@@ -1934,13 +1934,13 @@
         </is>
       </c>
       <c r="B31">
-        <v>187.7779421849389</v>
+        <v>187.7779421849386</v>
       </c>
       <c r="C31">
-        <v>36.7693636651215</v>
+        <v>36.76936366512084</v>
       </c>
       <c r="D31">
-        <v>15.06549247800699</v>
+        <v>15.06549247800706</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L31">
-        <v>0.6972198223900905</v>
+        <v>0.6972198223900908</v>
       </c>
     </row>
     <row r="32">
@@ -1989,10 +1989,10 @@
         <v>176.9141370949483</v>
       </c>
       <c r="C32">
-        <v>31.8077922700298</v>
+        <v>31.80779227002999</v>
       </c>
       <c r="D32">
-        <v>14.75751947865406</v>
+        <v>14.75751947865402</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2024,11 +2024,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L32">
-        <v>0.6776256603271691</v>
+        <v>0.6776256603271692</v>
       </c>
     </row>
     <row r="33">
@@ -2041,10 +2041,10 @@
         <v>153.7403890201312</v>
       </c>
       <c r="C33">
-        <v>25.79110640008252</v>
+        <v>25.79110640008264</v>
       </c>
       <c r="D33">
-        <v>12.06601957076967</v>
+        <v>12.06601957076966</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L33">
-        <v>0.6581550719536912</v>
+        <v>0.6581550719536913</v>
       </c>
     </row>
     <row r="34">
@@ -2090,13 +2090,13 @@
         </is>
       </c>
       <c r="B34">
-        <v>140.0999841018488</v>
+        <v>140.0999841018487</v>
       </c>
       <c r="C34">
-        <v>21.60173374293805</v>
+        <v>21.60173374293795</v>
       </c>
       <c r="D34">
-        <v>10.5610381579008</v>
+        <v>10.56103815790081</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2128,11 +2128,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L34">
-        <v>0.6279051543485665</v>
+        <v>0.6279051543485672</v>
       </c>
     </row>
     <row r="35">
@@ -2180,11 +2180,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L35">
-        <v>0.630554117943075</v>
+        <v>0.6305541179430753</v>
       </c>
     </row>
     <row r="36">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="B36">
-        <v>125.8513619003364</v>
+        <v>125.8513619003363</v>
       </c>
       <c r="C36">
-        <v>24.30131896132329</v>
+        <v>24.30131896132297</v>
       </c>
       <c r="D36">
-        <v>12.88611604394585</v>
+        <v>12.8861160439459</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2232,11 +2232,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L36">
-        <v>0.665229031984971</v>
+        <v>0.6652290319849714</v>
       </c>
     </row>
     <row r="37">
@@ -2249,7 +2249,7 @@
         <v>129.9180502505225</v>
       </c>
       <c r="C37">
-        <v>30.37019250778178</v>
+        <v>30.37019250778183</v>
       </c>
       <c r="D37">
         <v>16.69644669243334</v>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L37">
@@ -2298,10 +2298,10 @@
         </is>
       </c>
       <c r="B38">
-        <v>182.8674942419884</v>
+        <v>182.8674942419901</v>
       </c>
       <c r="C38">
-        <v>10.82010590190127</v>
+        <v>10.82010590190142</v>
       </c>
       <c r="D38">
         <v>3.819152300138388</v>
@@ -2336,11 +2336,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L38">
-        <v>0.4644649528272377</v>
+        <v>0.4644649528272382</v>
       </c>
     </row>
     <row r="39">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L39">
-        <v>0.4315215608449622</v>
+        <v>0.4315215608449626</v>
       </c>
     </row>
     <row r="40">
@@ -2405,7 +2405,7 @@
         <v>166.9888588029506</v>
       </c>
       <c r="C40">
-        <v>7.816846217859728</v>
+        <v>7.816846217859704</v>
       </c>
       <c r="D40">
         <v>2.687480888520814</v>
@@ -2440,11 +2440,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L40">
-        <v>0.4066011401501697</v>
+        <v>0.40660114015017</v>
       </c>
     </row>
     <row r="41">
@@ -2492,11 +2492,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L41">
-        <v>0.4390987928136436</v>
+        <v>0.4390987928136437</v>
       </c>
     </row>
     <row r="42">
@@ -2544,11 +2544,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L42">
-        <v>0.634462414957716</v>
+        <v>0.6344624149577164</v>
       </c>
     </row>
     <row r="43">
@@ -2558,13 +2558,13 @@
         </is>
       </c>
       <c r="B43">
-        <v>199.7869754476101</v>
+        <v>199.78697544761</v>
       </c>
       <c r="C43">
-        <v>33.36549843728049</v>
+        <v>33.36549843728019</v>
       </c>
       <c r="D43">
-        <v>14.80653046290867</v>
+        <v>14.80653046290877</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2596,11 +2596,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L43">
-        <v>0.667218400316251</v>
+        <v>0.6672184003162516</v>
       </c>
     </row>
     <row r="44">
@@ -2613,7 +2613,7 @@
         <v>190.7615290897307</v>
       </c>
       <c r="C44">
-        <v>37.7248192728869</v>
+        <v>37.724819272887</v>
       </c>
       <c r="D44">
         <v>16.72937493640647</v>
@@ -2648,11 +2648,11 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L44">
-        <v>0.6967577307394764</v>
+        <v>0.6967577307394769</v>
       </c>
     </row>
     <row r="45">
@@ -2662,13 +2662,13 @@
         </is>
       </c>
       <c r="B45">
-        <v>167.2883850853738</v>
+        <v>167.2883850853728</v>
       </c>
       <c r="C45">
-        <v>32.48515933716878</v>
+        <v>32.48515933716858</v>
       </c>
       <c r="D45">
-        <v>15.71796541534945</v>
+        <v>15.71796541534944</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2700,11 +2700,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L45">
-        <v>0.6801186110993674</v>
+        <v>0.6801186110993678</v>
       </c>
     </row>
     <row r="46">
@@ -2717,10 +2717,10 @@
         <v>205.1149675772048</v>
       </c>
       <c r="C46">
-        <v>38.27140312100881</v>
+        <v>38.27140312100867</v>
       </c>
       <c r="D46">
-        <v>17.61162764148617</v>
+        <v>17.6116276414862</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2752,11 +2752,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L46">
-        <v>0.6920612002256391</v>
+        <v>0.6920612002256398</v>
       </c>
     </row>
     <row r="47">
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="B47">
-        <v>154.3435236699871</v>
+        <v>154.343523669987</v>
       </c>
       <c r="C47">
-        <v>24.65580353797666</v>
+        <v>24.65580353797653</v>
       </c>
       <c r="D47">
         <v>12.05313701287831</v>
@@ -2804,11 +2804,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L47">
-        <v>0.6408088603306441</v>
+        <v>0.6408088603306443</v>
       </c>
     </row>
     <row r="48">
@@ -2818,10 +2818,10 @@
         </is>
       </c>
       <c r="B48">
-        <v>148.4403188173974</v>
+        <v>148.440318817406</v>
       </c>
       <c r="C48">
-        <v>27.24466484189225</v>
+        <v>27.24466484189258</v>
       </c>
       <c r="D48">
         <v>13.06562230099103</v>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L48">
-        <v>0.6642451708182315</v>
+        <v>0.6642451708182318</v>
       </c>
     </row>
     <row r="49">
@@ -2873,10 +2873,10 @@
         <v>129.4395581251278</v>
       </c>
       <c r="C49">
-        <v>19.53264677441833</v>
+        <v>19.53264677441824</v>
       </c>
       <c r="D49">
-        <v>8.995632155423612</v>
+        <v>8.995632155423619</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2908,11 +2908,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L49">
-        <v>0.6171243864104531</v>
+        <v>0.6171243864104534</v>
       </c>
     </row>
     <row r="50">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="B50">
-        <v>231.9720807165587</v>
+        <v>231.9720807165573</v>
       </c>
       <c r="C50">
-        <v>22.39618514478289</v>
+        <v>22.39618514478281</v>
       </c>
       <c r="D50">
         <v>6.457416010039628</v>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L50">
-        <v>0.5765829057853166</v>
+        <v>0.5765829057853172</v>
       </c>
     </row>
     <row r="51">
@@ -2974,13 +2974,13 @@
         </is>
       </c>
       <c r="B51">
-        <v>220.4392543224309</v>
+        <v>220.4392543224306</v>
       </c>
       <c r="C51">
-        <v>20.97365219824655</v>
+        <v>20.97365219824635</v>
       </c>
       <c r="D51">
-        <v>5.352958063558851</v>
+        <v>5.352958063558852</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3012,11 +3012,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L51">
-        <v>0.5683137967844815</v>
+        <v>0.5683137967844816</v>
       </c>
     </row>
     <row r="52">
@@ -3029,10 +3029,10 @@
         <v>200.0605851328598</v>
       </c>
       <c r="C52">
-        <v>21.57268673317901</v>
+        <v>21.57268673317897</v>
       </c>
       <c r="D52">
-        <v>9.290314743587519</v>
+        <v>9.290314743587524</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3064,11 +3064,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L52">
-        <v>0.5851458908676419</v>
+        <v>0.5851458908676427</v>
       </c>
     </row>
     <row r="53">
@@ -3078,13 +3078,13 @@
         </is>
       </c>
       <c r="B53">
-        <v>204.8207524195442</v>
+        <v>204.8207524195441</v>
       </c>
       <c r="C53">
-        <v>25.74990209649592</v>
+        <v>25.74990209649578</v>
       </c>
       <c r="D53">
-        <v>12.17942661413029</v>
+        <v>12.17942661413031</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3116,11 +3116,11 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L53">
-        <v>0.6174264813627863</v>
+        <v>0.6174264813627867</v>
       </c>
     </row>
     <row r="54">
@@ -3130,10 +3130,10 @@
         </is>
       </c>
       <c r="B54">
-        <v>202.4719067306365</v>
+        <v>202.4719067306364</v>
       </c>
       <c r="C54">
-        <v>40.68664053848342</v>
+        <v>40.68664053848339</v>
       </c>
       <c r="D54">
         <v>18.1033763498416</v>
@@ -3168,11 +3168,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L54">
-        <v>0.703336039348988</v>
+        <v>0.7033360393489883</v>
       </c>
     </row>
     <row r="55">
@@ -3220,11 +3220,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L55">
-        <v>0.6821694414373024</v>
+        <v>0.6821694414373027</v>
       </c>
     </row>
     <row r="56">
@@ -3234,10 +3234,10 @@
         </is>
       </c>
       <c r="B56">
-        <v>187.9004605838191</v>
+        <v>187.9004605838184</v>
       </c>
       <c r="C56">
-        <v>34.95751845154737</v>
+        <v>34.95751845154702</v>
       </c>
       <c r="D56">
         <v>14.89713522471409</v>
@@ -3272,11 +3272,11 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L56">
-        <v>0.6877521530265073</v>
+        <v>0.6877521530265077</v>
       </c>
     </row>
     <row r="57">
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="B57">
-        <v>153.2292891135084</v>
+        <v>153.2292891135083</v>
       </c>
       <c r="C57">
-        <v>27.41581895384849</v>
+        <v>27.41581895384816</v>
       </c>
       <c r="D57">
-        <v>11.69096413543774</v>
+        <v>11.69096413543783</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3324,11 +3324,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L57">
-        <v>0.661691729681716</v>
+        <v>0.6616917296817162</v>
       </c>
     </row>
     <row r="58">
@@ -3376,11 +3376,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L58">
-        <v>0.6057017089471304</v>
+        <v>0.6057017089471308</v>
       </c>
     </row>
     <row r="59">
@@ -3390,10 +3390,10 @@
         </is>
       </c>
       <c r="B59">
-        <v>142.5062264789606</v>
+        <v>142.5062264789607</v>
       </c>
       <c r="C59">
-        <v>32.01891584432965</v>
+        <v>32.01891584432977</v>
       </c>
       <c r="D59">
         <v>17.34589773467742</v>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L59">
@@ -3445,7 +3445,7 @@
         <v>115.5005779654679</v>
       </c>
       <c r="C60">
-        <v>21.72300724353196</v>
+        <v>21.72300724353195</v>
       </c>
       <c r="D60">
         <v>10.77889240893214</v>
@@ -3480,11 +3480,11 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L60">
-        <v>0.6588814209254384</v>
+        <v>0.6588814209254388</v>
       </c>
     </row>
     <row r="61">
@@ -3532,11 +3532,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L61">
-        <v>0.6323622545780654</v>
+        <v>0.6323622545780657</v>
       </c>
     </row>
     <row r="62">
@@ -3546,13 +3546,13 @@
         </is>
       </c>
       <c r="B62">
-        <v>194.5489429422747</v>
+        <v>194.5489429422717</v>
       </c>
       <c r="C62">
-        <v>10.73201251064395</v>
+        <v>10.73201251064371</v>
       </c>
       <c r="D62">
-        <v>3.659661166637173</v>
+        <v>3.659661166637174</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3584,11 +3584,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L62">
-        <v>0.4574533151883829</v>
+        <v>0.4574533151883834</v>
       </c>
     </row>
     <row r="63">
@@ -3636,11 +3636,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L63">
-        <v>0.4805026055436928</v>
+        <v>0.4805026055436933</v>
       </c>
     </row>
     <row r="64">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L64">
-        <v>0.4265983052263179</v>
+        <v>0.426598305226318</v>
       </c>
     </row>
     <row r="65">
@@ -3705,10 +3705,10 @@
         <v>184.0980892821116</v>
       </c>
       <c r="C65">
-        <v>7.781246215580932</v>
+        <v>7.781246215580888</v>
       </c>
       <c r="D65">
-        <v>2.614933276860715</v>
+        <v>2.614933276860716</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3740,11 +3740,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L65">
-        <v>0.3999463962488344</v>
+        <v>0.3999463962488348</v>
       </c>
     </row>
     <row r="66">
@@ -3757,7 +3757,7 @@
         <v>206.9233810232751</v>
       </c>
       <c r="C66">
-        <v>29.90402268644105</v>
+        <v>29.90402268644097</v>
       </c>
       <c r="D66">
         <v>13.46117463685064</v>
@@ -3792,11 +3792,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L66">
-        <v>0.6447209372392089</v>
+        <v>0.6447209372392092</v>
       </c>
     </row>
     <row r="67">
@@ -3806,13 +3806,13 @@
         </is>
       </c>
       <c r="B67">
-        <v>165.356757700304</v>
+        <v>165.3567577003041</v>
       </c>
       <c r="C67">
-        <v>31.74887643496646</v>
+        <v>31.7488764349668</v>
       </c>
       <c r="D67">
-        <v>14.42492321946268</v>
+        <v>14.42492321946257</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3844,11 +3844,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L67">
-        <v>0.6849832094255341</v>
+        <v>0.6849832094255346</v>
       </c>
     </row>
     <row r="68">
@@ -3861,7 +3861,7 @@
         <v>196.3514959411026</v>
       </c>
       <c r="C68">
-        <v>43.67638645610733</v>
+        <v>43.67638645610723</v>
       </c>
       <c r="D68">
         <v>18.48707412003629</v>
@@ -3896,11 +3896,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L68">
-        <v>0.7231407515077664</v>
+        <v>0.7231407515077667</v>
       </c>
     </row>
     <row r="69">
@@ -3910,13 +3910,13 @@
         </is>
       </c>
       <c r="B69">
-        <v>188.2161400059606</v>
+        <v>188.2161400059608</v>
       </c>
       <c r="C69">
-        <v>41.81062625727754</v>
+        <v>41.81062625727785</v>
       </c>
       <c r="D69">
-        <v>19.27328372511322</v>
+        <v>19.2732837251132</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3948,11 +3948,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L69">
-        <v>0.7237655420687013</v>
+        <v>0.7237655420687017</v>
       </c>
     </row>
     <row r="70">
@@ -3962,10 +3962,10 @@
         </is>
       </c>
       <c r="B70">
-        <v>203.7329411593051</v>
+        <v>203.7329411593047</v>
       </c>
       <c r="C70">
-        <v>50.65266489401592</v>
+        <v>50.65266489401557</v>
       </c>
       <c r="D70">
         <v>24.09344869976038</v>
@@ -4000,11 +4000,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L70">
-        <v>0.7420984067862937</v>
+        <v>0.7420984067862938</v>
       </c>
     </row>
     <row r="71">
@@ -4017,7 +4017,7 @@
         <v>161.7281689057798</v>
       </c>
       <c r="C71">
-        <v>26.39884889079226</v>
+        <v>26.39884889079225</v>
       </c>
       <c r="D71">
         <v>12.22246340653353</v>
@@ -4052,11 +4052,11 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L71">
-        <v>0.6464157789608588</v>
+        <v>0.646415778960859</v>
       </c>
     </row>
     <row r="72">
@@ -4104,11 +4104,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L72">
-        <v>0.6291453835949884</v>
+        <v>0.6291453835949888</v>
       </c>
     </row>
     <row r="73">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L73">
@@ -4208,11 +4208,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L74">
-        <v>0.4838121558070759</v>
+        <v>0.4838121558070764</v>
       </c>
     </row>
     <row r="75">
@@ -4222,13 +4222,13 @@
         </is>
       </c>
       <c r="B75">
-        <v>209.0480564392616</v>
+        <v>209.0480564392615</v>
       </c>
       <c r="C75">
-        <v>19.31627718321676</v>
+        <v>19.31627718321661</v>
       </c>
       <c r="D75">
-        <v>5.576998868655266</v>
+        <v>5.576998868655273</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4260,11 +4260,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L75">
-        <v>0.5588623688208808</v>
+        <v>0.5588623688208816</v>
       </c>
     </row>
     <row r="76">
@@ -4280,7 +4280,7 @@
         <v>21.47104310733817</v>
       </c>
       <c r="D76">
-        <v>8.503003734120183</v>
+        <v>8.503003734120185</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4312,11 +4312,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L76">
-        <v>0.5938207910917546</v>
+        <v>0.5938207910917549</v>
       </c>
     </row>
     <row r="77">
@@ -4329,7 +4329,7 @@
         <v>198.6938262588515</v>
       </c>
       <c r="C77">
-        <v>22.15262744785375</v>
+        <v>22.15262744785377</v>
       </c>
       <c r="D77">
         <v>10.49164582300167</v>
@@ -4364,11 +4364,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L77">
-        <v>0.5926491904322179</v>
+        <v>0.5926491904322182</v>
       </c>
     </row>
     <row r="78">
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="B78">
-        <v>208.7307053149978</v>
+        <v>208.7307053149976</v>
       </c>
       <c r="C78">
-        <v>39.15852200558941</v>
+        <v>39.15852200558903</v>
       </c>
       <c r="D78">
-        <v>17.46694833653847</v>
+        <v>17.46694833653848</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4416,11 +4416,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L78">
-        <v>0.699497357926143</v>
+        <v>0.6994973579261435</v>
       </c>
     </row>
     <row r="79">
@@ -4433,7 +4433,7 @@
         <v>178.1139396808262</v>
       </c>
       <c r="C79">
-        <v>31.90191643966634</v>
+        <v>31.90191643966632</v>
       </c>
       <c r="D79">
         <v>13.37282097072976</v>
@@ -4468,11 +4468,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L79">
-        <v>0.6729324138794386</v>
+        <v>0.6729324138794389</v>
       </c>
     </row>
     <row r="80">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="B80">
-        <v>178.1922218182295</v>
+        <v>178.1922218182294</v>
       </c>
       <c r="C80">
-        <v>29.12704052658208</v>
+        <v>29.12704052658188</v>
       </c>
       <c r="D80">
-        <v>12.58780734900294</v>
+        <v>12.58780734900295</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4520,11 +4520,11 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L80">
-        <v>0.6574107540373683</v>
+        <v>0.6574107540373685</v>
       </c>
     </row>
     <row r="81">
@@ -4537,7 +4537,7 @@
         <v>134.2551764227777</v>
       </c>
       <c r="C81">
-        <v>24.95137001276563</v>
+        <v>24.95137001276562</v>
       </c>
       <c r="D81">
         <v>12.12932238270216</v>
@@ -4572,11 +4572,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L81">
-        <v>0.6621788766088864</v>
+        <v>0.6621788766088869</v>
       </c>
     </row>
     <row r="82">
@@ -4624,11 +4624,11 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L82">
-        <v>0.6894392501930952</v>
+        <v>0.6894392501930955</v>
       </c>
     </row>
     <row r="83">
@@ -4641,10 +4641,10 @@
         <v>128.2166460305167</v>
       </c>
       <c r="C83">
-        <v>20.76171602425907</v>
+        <v>20.76171602425899</v>
       </c>
       <c r="D83">
-        <v>9.446134622550924</v>
+        <v>9.446134622550925</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4676,11 +4676,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L83">
-        <v>0.6326278345281664</v>
+        <v>0.6326278345281666</v>
       </c>
     </row>
     <row r="84">
@@ -4690,13 +4690,13 @@
         </is>
       </c>
       <c r="B84">
-        <v>113.4235356709539</v>
+        <v>113.4235356709532</v>
       </c>
       <c r="C84">
-        <v>19.9107343060427</v>
+        <v>19.91073430604237</v>
       </c>
       <c r="D84">
-        <v>10.67741554667427</v>
+        <v>10.67741554667428</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4728,11 +4728,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L84">
-        <v>0.6395353897125228</v>
+        <v>0.6395353897125229</v>
       </c>
     </row>
     <row r="85">
@@ -4742,13 +4742,13 @@
         </is>
       </c>
       <c r="B85">
-        <v>107.6085020493461</v>
+        <v>107.6085020493469</v>
       </c>
       <c r="C85">
-        <v>14.68397218300887</v>
+        <v>14.68397218300885</v>
       </c>
       <c r="D85">
-        <v>7.137891365688872</v>
+        <v>7.137891365688874</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4780,11 +4780,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L85">
-        <v>0.5873605601440239</v>
+        <v>0.587360560144024</v>
       </c>
     </row>
     <row r="86">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="B86">
-        <v>142.3848273790187</v>
+        <v>142.3848273790175</v>
       </c>
       <c r="C86">
-        <v>6.483509868975292</v>
+        <v>6.483509868975264</v>
       </c>
       <c r="D86">
         <v>2.573136203912667</v>
@@ -4832,11 +4832,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L86">
-        <v>0.382283840760311</v>
+        <v>0.3822838407603112</v>
       </c>
     </row>
     <row r="87">
@@ -4849,7 +4849,7 @@
         <v>241.4273457867745</v>
       </c>
       <c r="C87">
-        <v>20.69296870482568</v>
+        <v>20.69296870482567</v>
       </c>
       <c r="D87">
         <v>4.481062636809413</v>
@@ -4884,11 +4884,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L87">
-        <v>0.5561293575525968</v>
+        <v>0.5561293575525974</v>
       </c>
     </row>
     <row r="88">
@@ -4898,13 +4898,13 @@
         </is>
       </c>
       <c r="B88">
-        <v>172.5702467688302</v>
+        <v>172.5702467688307</v>
       </c>
       <c r="C88">
-        <v>8.332836393340799</v>
+        <v>8.332836393340866</v>
       </c>
       <c r="D88">
-        <v>2.598165897730092</v>
+        <v>2.598165897730091</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4936,11 +4936,11 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L88">
-        <v>0.4162207022519905</v>
+        <v>0.4162207022519911</v>
       </c>
     </row>
     <row r="89">
@@ -4988,11 +4988,11 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L89">
-        <v>0.5094972986084061</v>
+        <v>0.5094972986084065</v>
       </c>
     </row>
     <row r="90">
@@ -5002,13 +5002,13 @@
         </is>
       </c>
       <c r="B90">
-        <v>216.7183748141942</v>
+        <v>216.7183748141926</v>
       </c>
       <c r="C90">
-        <v>39.3365103240304</v>
+        <v>39.33651032403022</v>
       </c>
       <c r="D90">
-        <v>17.99432704043767</v>
+        <v>17.99432704043764</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -5040,11 +5040,11 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L90">
-        <v>0.6893790998220904</v>
+        <v>0.6893790998220908</v>
       </c>
     </row>
     <row r="91">
@@ -5054,13 +5054,13 @@
         </is>
       </c>
       <c r="B91">
-        <v>177.2840459902786</v>
+        <v>177.2840459902791</v>
       </c>
       <c r="C91">
-        <v>31.95843883761967</v>
+        <v>31.95843883761991</v>
       </c>
       <c r="D91">
-        <v>13.24913675158569</v>
+        <v>13.24913675158568</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -5092,11 +5092,11 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L91">
-        <v>0.6721793183566541</v>
+        <v>0.6721793183566543</v>
       </c>
     </row>
     <row r="92">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B92">
-        <v>153.6489944396118</v>
+        <v>153.6489944396113</v>
       </c>
       <c r="C92">
-        <v>26.71153251628182</v>
+        <v>26.71153251628184</v>
       </c>
       <c r="D92">
         <v>11.38890332522832</v>
@@ -5144,11 +5144,11 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L92">
-        <v>0.658535319052981</v>
+        <v>0.6585353190529811</v>
       </c>
     </row>
     <row r="93">
@@ -5161,10 +5161,10 @@
         <v>189.056844111468</v>
       </c>
       <c r="C93">
-        <v>33.09238536111545</v>
+        <v>33.09238536111527</v>
       </c>
       <c r="D93">
-        <v>14.5472188110257</v>
+        <v>14.54721881102571</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -5196,11 +5196,11 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L93">
-        <v>0.6743159870391944</v>
+        <v>0.674315987039195</v>
       </c>
     </row>
     <row r="94">
@@ -5210,13 +5210,13 @@
         </is>
       </c>
       <c r="B94">
-        <v>183.9112695728535</v>
+        <v>183.9112695728536</v>
       </c>
       <c r="C94">
-        <v>31.76051326028833</v>
+        <v>31.7605132602889</v>
       </c>
       <c r="D94">
-        <v>14.49308738961119</v>
+        <v>14.49308738961099</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5248,11 +5248,11 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L94">
-        <v>0.67105685973032</v>
+        <v>0.6710568597303205</v>
       </c>
     </row>
     <row r="95">
@@ -5300,11 +5300,11 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L95">
-        <v>0.6457316011839536</v>
+        <v>0.6457316011839538</v>
       </c>
     </row>
     <row r="96">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L96">
@@ -5404,11 +5404,11 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L97">
-        <v>0.603102045900454</v>
+        <v>0.6031020459004541</v>
       </c>
     </row>
     <row r="98">
@@ -5418,10 +5418,10 @@
         </is>
       </c>
       <c r="B98">
-        <v>218.3385314166009</v>
+        <v>218.3385314166006</v>
       </c>
       <c r="C98">
-        <v>20.40584618996002</v>
+        <v>20.40584618995997</v>
       </c>
       <c r="D98">
         <v>6.931701023939162</v>
@@ -5456,11 +5456,11 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L98">
-        <v>0.5669969996056593</v>
+        <v>0.5669969996056597</v>
       </c>
     </row>
     <row r="99">
@@ -5508,11 +5508,11 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L99">
-        <v>0.555214432281471</v>
+        <v>0.5552144322814718</v>
       </c>
     </row>
     <row r="100">
@@ -5525,7 +5525,7 @@
         <v>206.1103132955022</v>
       </c>
       <c r="C100">
-        <v>9.910835874794957</v>
+        <v>9.910835874794971</v>
       </c>
       <c r="D100">
         <v>2.919056178199924</v>
@@ -5560,11 +5560,11 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L100">
-        <v>0.4365938290283797</v>
+        <v>0.4365938290283802</v>
       </c>
     </row>
     <row r="101">
@@ -5577,10 +5577,10 @@
         <v>241.0292878977888</v>
       </c>
       <c r="C101">
-        <v>21.81457265314115</v>
+        <v>21.81457265314096</v>
       </c>
       <c r="D101">
-        <v>5.710016982012843</v>
+        <v>5.710016982012847</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5612,11 +5612,11 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L101">
-        <v>0.5705964327154996</v>
+        <v>0.5705964327155003</v>
       </c>
     </row>
     <row r="102">
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="B102">
-        <v>230.3624777849903</v>
+        <v>230.3624777849895</v>
       </c>
       <c r="C102">
-        <v>39.54870936329439</v>
+        <v>39.54870936329398</v>
       </c>
       <c r="D102">
         <v>18.02279498549743</v>
@@ -5664,11 +5664,11 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L102">
-        <v>0.6808051427867929</v>
+        <v>0.6808051427867933</v>
       </c>
     </row>
     <row r="103">
@@ -5678,10 +5678,10 @@
         </is>
       </c>
       <c r="B103">
-        <v>215.6677566793056</v>
+        <v>215.6677566793057</v>
       </c>
       <c r="C103">
-        <v>45.57216726930336</v>
+        <v>45.57216726930357</v>
       </c>
       <c r="D103">
         <v>20.25667982467829</v>
@@ -5716,11 +5716,11 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L103">
-        <v>0.7168197415741927</v>
+        <v>0.7168197415741934</v>
       </c>
     </row>
     <row r="104">
@@ -5768,11 +5768,11 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L104">
-        <v>0.7005283170246226</v>
+        <v>0.7005283170246229</v>
       </c>
     </row>
     <row r="105">
@@ -5820,11 +5820,11 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L105">
-        <v>0.7158264742018586</v>
+        <v>0.715826474201859</v>
       </c>
     </row>
     <row r="106">
@@ -5872,11 +5872,11 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L106">
-        <v>0.701276055181801</v>
+        <v>0.7012760551818012</v>
       </c>
     </row>
     <row r="107">
@@ -5889,7 +5889,7 @@
         <v>168.1219256705467</v>
       </c>
       <c r="C107">
-        <v>29.43951487383008</v>
+        <v>29.43951487383005</v>
       </c>
       <c r="D107">
         <v>14.59687374059325</v>
@@ -5924,11 +5924,11 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L107">
-        <v>0.6687103799699868</v>
+        <v>0.6687103799699867</v>
       </c>
     </row>
     <row r="108">
@@ -5976,11 +5976,11 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L108">
-        <v>0.5934081960288028</v>
+        <v>0.593408196028803</v>
       </c>
     </row>
     <row r="109">
@@ -6028,11 +6028,11 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L109">
-        <v>0.587485189341966</v>
+        <v>0.5874851893419661</v>
       </c>
     </row>
     <row r="110">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B110">
-        <v>200.1924202561246</v>
+        <v>200.1924202561259</v>
       </c>
       <c r="C110">
-        <v>10.36811205722272</v>
+        <v>10.3681120572228</v>
       </c>
       <c r="D110">
         <v>3.447173654807416</v>
@@ -6080,11 +6080,11 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L110">
-        <v>0.4457705874124945</v>
+        <v>0.4457705874124952</v>
       </c>
     </row>
     <row r="111">
@@ -6132,11 +6132,11 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L111">
-        <v>0.596789458443278</v>
+        <v>0.5967894584432785</v>
       </c>
     </row>
     <row r="112">
@@ -6149,10 +6149,10 @@
         <v>202.2897397505791</v>
       </c>
       <c r="C112">
-        <v>20.77029434248098</v>
+        <v>20.77029434248081</v>
       </c>
       <c r="D112">
-        <v>6.811869884447594</v>
+        <v>6.811869884447717</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -6184,11 +6184,11 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L112">
-        <v>0.5742425913603976</v>
+        <v>0.574242591360398</v>
       </c>
     </row>
     <row r="113">
@@ -6236,11 +6236,11 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L113">
-        <v>0.6433891610485536</v>
+        <v>0.643389161048554</v>
       </c>
     </row>
     <row r="114">
@@ -6250,13 +6250,13 @@
         </is>
       </c>
       <c r="B114">
-        <v>203.5103358205857</v>
+        <v>203.5103358205856</v>
       </c>
       <c r="C114">
-        <v>44.28971608468808</v>
+        <v>44.2897160846882</v>
       </c>
       <c r="D114">
-        <v>21.0526712549207</v>
+        <v>21.05267125492055</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -6288,11 +6288,11 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L114">
-        <v>0.7185227475270781</v>
+        <v>0.7185227475270782</v>
       </c>
     </row>
     <row r="115">
@@ -6305,10 +6305,10 @@
         <v>188.4569802015296</v>
       </c>
       <c r="C115">
-        <v>37.73315312578193</v>
+        <v>37.73315312578175</v>
       </c>
       <c r="D115">
-        <v>18.27446737649926</v>
+        <v>18.27446737649925</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -6340,11 +6340,11 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L115">
-        <v>0.7010922600479415</v>
+        <v>0.7010922600479418</v>
       </c>
     </row>
     <row r="116">
@@ -6354,13 +6354,13 @@
         </is>
       </c>
       <c r="B116">
-        <v>152.5368927849875</v>
+        <v>152.5368927849874</v>
       </c>
       <c r="C116">
-        <v>26.234533112687</v>
+        <v>26.23453311268693</v>
       </c>
       <c r="D116">
-        <v>11.69663349156754</v>
+        <v>11.69663349156755</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -6392,11 +6392,11 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L116">
-        <v>0.6545884803400049</v>
+        <v>0.6545884803400054</v>
       </c>
     </row>
     <row r="117">
@@ -6406,13 +6406,13 @@
         </is>
       </c>
       <c r="B117">
-        <v>152.1701462379383</v>
+        <v>152.1701462379382</v>
       </c>
       <c r="C117">
-        <v>22.44491822653656</v>
+        <v>22.4449182265365</v>
       </c>
       <c r="D117">
-        <v>10.09659137591889</v>
+        <v>10.0965913759189</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -6444,11 +6444,11 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L117">
-        <v>0.6239023677348706</v>
+        <v>0.623902367734871</v>
       </c>
     </row>
     <row r="118">
@@ -6458,10 +6458,10 @@
         </is>
       </c>
       <c r="B118">
-        <v>152.6666391811663</v>
+        <v>152.6666391811662</v>
       </c>
       <c r="C118">
-        <v>21.9812892403285</v>
+        <v>21.98128924032843</v>
       </c>
       <c r="D118">
         <v>11.41678629294806</v>
@@ -6496,11 +6496,11 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L118">
-        <v>0.6233869435351135</v>
+        <v>0.6233869435351138</v>
       </c>
     </row>
     <row r="119">
@@ -6548,11 +6548,11 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L119">
-        <v>0.6259745729620707</v>
+        <v>0.6259745729620708</v>
       </c>
     </row>
     <row r="120">
@@ -6565,10 +6565,10 @@
         <v>128.1947290307376</v>
       </c>
       <c r="C120">
-        <v>16.86613690922963</v>
+        <v>16.86613690922967</v>
       </c>
       <c r="D120">
-        <v>7.930123705470303</v>
+        <v>7.930123705470299</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L120">
@@ -6617,10 +6617,10 @@
         <v>123.863077799141</v>
       </c>
       <c r="C121">
-        <v>15.27003524589874</v>
+        <v>15.27003524589881</v>
       </c>
       <c r="D121">
-        <v>5.467316623946082</v>
+        <v>5.467316623946079</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6652,11 +6652,11 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L121">
-        <v>0.5700776621938202</v>
+        <v>0.5700776621938204</v>
       </c>
     </row>
     <row r="122">
@@ -6666,13 +6666,13 @@
         </is>
       </c>
       <c r="B122">
-        <v>210.3702676468863</v>
+        <v>210.3702676468867</v>
       </c>
       <c r="C122">
-        <v>18.86004036006856</v>
+        <v>18.86004036006873</v>
       </c>
       <c r="D122">
-        <v>5.471433838436951</v>
+        <v>5.47143383843695</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6704,11 +6704,11 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L122">
-        <v>0.552943681088559</v>
+        <v>0.5529436810885591</v>
       </c>
     </row>
     <row r="123">
@@ -6756,11 +6756,11 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L123">
-        <v>0.6410207514231578</v>
+        <v>0.6410207514231581</v>
       </c>
     </row>
     <row r="124">
@@ -6808,11 +6808,11 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L124">
-        <v>0.7048704264756254</v>
+        <v>0.7048704264756259</v>
       </c>
     </row>
     <row r="125">
@@ -6822,10 +6822,10 @@
         </is>
       </c>
       <c r="B125">
-        <v>229.0314996962222</v>
+        <v>229.0314996962219</v>
       </c>
       <c r="C125">
-        <v>32.30493099174037</v>
+        <v>32.30493099174019</v>
       </c>
       <c r="D125">
         <v>14.69213771862211</v>
@@ -6860,11 +6860,11 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L125">
-        <v>0.6519334287769667</v>
+        <v>0.6519334287769671</v>
       </c>
     </row>
     <row r="126">
@@ -6874,13 +6874,13 @@
         </is>
       </c>
       <c r="B126">
-        <v>198.4964621525583</v>
+        <v>198.4964621525581</v>
       </c>
       <c r="C126">
-        <v>40.88532348142337</v>
+        <v>40.88532348142319</v>
       </c>
       <c r="D126">
-        <v>19.58111223478602</v>
+        <v>19.58111223478603</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6912,11 +6912,11 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L126">
-        <v>0.7086925233000995</v>
+        <v>0.7086925233000998</v>
       </c>
     </row>
     <row r="127">
@@ -6926,13 +6926,13 @@
         </is>
       </c>
       <c r="B127">
-        <v>184.0851554264457</v>
+        <v>184.0851554264469</v>
       </c>
       <c r="C127">
-        <v>31.91258633444548</v>
+        <v>31.91258633444565</v>
       </c>
       <c r="D127">
-        <v>13.12886824328688</v>
+        <v>13.12886824328687</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6964,11 +6964,11 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L127">
-        <v>0.6706024440544538</v>
+        <v>0.670602444054454</v>
       </c>
     </row>
     <row r="128">
@@ -7016,11 +7016,11 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L128">
-        <v>0.6397704027055862</v>
+        <v>0.6397704027055864</v>
       </c>
     </row>
     <row r="129">
@@ -7030,10 +7030,10 @@
         </is>
       </c>
       <c r="B129">
-        <v>152.8749480753548</v>
+        <v>152.8749480753549</v>
       </c>
       <c r="C129">
-        <v>25.66825102461347</v>
+        <v>25.66825102461353</v>
       </c>
       <c r="D129">
         <v>12.49112159523171</v>
@@ -7068,11 +7068,11 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L129">
-        <v>0.6516145804285353</v>
+        <v>0.6516145804285355</v>
       </c>
     </row>
     <row r="130">
@@ -7082,13 +7082,13 @@
         </is>
       </c>
       <c r="B130">
-        <v>136.2375290231751</v>
+        <v>136.2375290231753</v>
       </c>
       <c r="C130">
-        <v>20.66987826991754</v>
+        <v>20.66987826991768</v>
       </c>
       <c r="D130">
-        <v>10.22351017078671</v>
+        <v>10.2235101707867</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -7120,11 +7120,11 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L130">
-        <v>0.6277418835571996</v>
+        <v>0.6277418835571998</v>
       </c>
     </row>
     <row r="131">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L131">
@@ -7224,11 +7224,11 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L132">
-        <v>0.6114694601231526</v>
+        <v>0.611469460123153</v>
       </c>
     </row>
     <row r="133">
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="B133">
-        <v>129.6466792866727</v>
+        <v>129.6466792866725</v>
       </c>
       <c r="C133">
-        <v>23.26254006612577</v>
+        <v>23.26254006612561</v>
       </c>
       <c r="D133">
         <v>12.50975497652181</v>
@@ -7276,11 +7276,11 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L133">
-        <v>0.6524556531206233</v>
+        <v>0.6524556531206234</v>
       </c>
     </row>
     <row r="134">
@@ -7328,11 +7328,11 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L134">
-        <v>0.4831766715858749</v>
+        <v>0.4831766715858754</v>
       </c>
     </row>
     <row r="135">
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="B135">
-        <v>210.5752866622064</v>
+        <v>210.5752866622052</v>
       </c>
       <c r="C135">
-        <v>9.500644073412747</v>
+        <v>9.500644073412625</v>
       </c>
       <c r="D135">
         <v>2.678882533963664</v>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L135">
@@ -7432,11 +7432,11 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L136">
-        <v>0.4515352006361589</v>
+        <v>0.4515352006361595</v>
       </c>
     </row>
     <row r="137">
@@ -7449,10 +7449,10 @@
         <v>204.3867351882258</v>
       </c>
       <c r="C137">
-        <v>10.76913120361623</v>
+        <v>10.76913120361635</v>
       </c>
       <c r="D137">
-        <v>3.405377560134958</v>
+        <v>3.405377560134954</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7484,11 +7484,11 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L137">
-        <v>0.4528692535496806</v>
+        <v>0.4528692535496811</v>
       </c>
     </row>
     <row r="138">
@@ -7536,11 +7536,11 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L138">
-        <v>0.6647647479993475</v>
+        <v>0.6647647479993481</v>
       </c>
     </row>
     <row r="139">
@@ -7550,13 +7550,13 @@
         </is>
       </c>
       <c r="B139">
-        <v>169.00287191555</v>
+        <v>169.002871915551</v>
       </c>
       <c r="C139">
-        <v>27.69137661989415</v>
+        <v>27.69137661989451</v>
       </c>
       <c r="D139">
-        <v>12.58997669617698</v>
+        <v>12.58997669617697</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7588,11 +7588,11 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L139">
-        <v>0.6573424648197389</v>
+        <v>0.6573424648197393</v>
       </c>
     </row>
     <row r="140">
@@ -7602,10 +7602,10 @@
         </is>
       </c>
       <c r="B140">
-        <v>172.6629497443763</v>
+        <v>172.6629497443756</v>
       </c>
       <c r="C140">
-        <v>31.18232154153999</v>
+        <v>31.18232154153989</v>
       </c>
       <c r="D140">
         <v>13.37033911695042</v>
@@ -7640,11 +7640,11 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L140">
-        <v>0.6745490184381143</v>
+        <v>0.6745490184381145</v>
       </c>
     </row>
     <row r="141">
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="B141">
-        <v>189.1056982234904</v>
+        <v>189.1056982234911</v>
       </c>
       <c r="C141">
-        <v>28.85517473415267</v>
+        <v>28.85517473415295</v>
       </c>
       <c r="D141">
-        <v>12.6776823685106</v>
+        <v>12.67768236851052</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7692,11 +7692,11 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L141">
-        <v>0.6492770988595382</v>
+        <v>0.6492770988595383</v>
       </c>
     </row>
     <row r="142">
@@ -7744,11 +7744,11 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L142">
-        <v>0.6164687667567338</v>
+        <v>0.6164687667567341</v>
       </c>
     </row>
     <row r="143">
@@ -7758,10 +7758,10 @@
         </is>
       </c>
       <c r="B143">
-        <v>143.3139834199493</v>
+        <v>143.3139834199479</v>
       </c>
       <c r="C143">
-        <v>15.01249934991821</v>
+        <v>15.01249934991809</v>
       </c>
       <c r="D143">
         <v>6.865660792191659</v>
@@ -7796,11 +7796,11 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L143">
-        <v>0.5516163570160023</v>
+        <v>0.5516163570160022</v>
       </c>
     </row>
     <row r="144">
@@ -7810,13 +7810,13 @@
         </is>
       </c>
       <c r="B144">
-        <v>130.1624591137711</v>
+        <v>130.162459113771</v>
       </c>
       <c r="C144">
-        <v>12.73997714903744</v>
+        <v>12.73997714903739</v>
       </c>
       <c r="D144">
-        <v>6.096531448218046</v>
+        <v>6.096531448218047</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7848,11 +7848,11 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L144">
-        <v>0.5332548210462502</v>
+        <v>0.5332548210462504</v>
       </c>
     </row>
     <row r="145">
@@ -7862,13 +7862,13 @@
         </is>
       </c>
       <c r="B145">
-        <v>122.3820886900557</v>
+        <v>122.382088690056</v>
       </c>
       <c r="C145">
-        <v>15.1833286330795</v>
+        <v>15.18332863307944</v>
       </c>
       <c r="D145">
-        <v>6.808641446728391</v>
+        <v>6.808641446728402</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7900,11 +7900,11 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L145">
-        <v>0.5742456335250177</v>
+        <v>0.5742456335250181</v>
       </c>
     </row>
     <row r="146">
@@ -7914,13 +7914,13 @@
         </is>
       </c>
       <c r="B146">
-        <v>221.2723932688008</v>
+        <v>221.2723932688011</v>
       </c>
       <c r="C146">
-        <v>25.39576021003377</v>
+        <v>25.39576021003395</v>
       </c>
       <c r="D146">
-        <v>8.288903725556612</v>
+        <v>8.28890372555661</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7952,11 +7952,11 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L146">
-        <v>0.6037782839566491</v>
+        <v>0.6037782839566497</v>
       </c>
     </row>
     <row r="147">
@@ -7969,7 +7969,7 @@
         <v>83.2159681652692</v>
       </c>
       <c r="C147">
-        <v>7.21500159639161</v>
+        <v>7.215001596400659</v>
       </c>
       <c r="D147">
         <v>2.662042692208463</v>
@@ -8004,11 +8004,11 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L147">
-        <v>0.447709857273143</v>
+        <v>0.4477098572731432</v>
       </c>
     </row>
     <row r="148">
@@ -8056,11 +8056,11 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L148">
-        <v>0.4078987272030097</v>
+        <v>0.4078987272030101</v>
       </c>
     </row>
     <row r="149">
@@ -8070,10 +8070,10 @@
         </is>
       </c>
       <c r="B149">
-        <v>208.3545380298019</v>
+        <v>208.3545380298024</v>
       </c>
       <c r="C149">
-        <v>12.8126128625798</v>
+        <v>12.81261286257985</v>
       </c>
       <c r="D149">
         <v>4.08320236438505</v>
@@ -8108,11 +8108,11 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L149">
-        <v>0.4860531200200462</v>
+        <v>0.4860531200200465</v>
       </c>
     </row>
     <row r="150">
@@ -8128,7 +8128,7 @@
         <v>15.98959080571596</v>
       </c>
       <c r="D150">
-        <v>5.657336206771098</v>
+        <v>5.657336206771096</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -8160,11 +8160,11 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L150">
-        <v>0.5518607787010076</v>
+        <v>0.5518607787010079</v>
       </c>
     </row>
     <row r="151">
@@ -8174,13 +8174,13 @@
         </is>
       </c>
       <c r="B151">
-        <v>201.3425743093861</v>
+        <v>201.342574309393</v>
       </c>
       <c r="C151">
-        <v>42.37225601077193</v>
+        <v>42.37225601077221</v>
       </c>
       <c r="D151">
-        <v>22.52020993741534</v>
+        <v>22.52020993741538</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -8212,11 +8212,11 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L151">
-        <v>0.7123990939875348</v>
+        <v>0.7123990939875355</v>
       </c>
     </row>
     <row r="152">
@@ -8229,10 +8229,10 @@
         <v>178.6842748722023</v>
       </c>
       <c r="C152">
-        <v>39.75571138278422</v>
+        <v>39.7557113827839</v>
       </c>
       <c r="D152">
-        <v>20.12843287508803</v>
+        <v>20.12843287508804</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L152">
@@ -8278,13 +8278,13 @@
         </is>
       </c>
       <c r="B153">
-        <v>185.210751782864</v>
+        <v>185.2107517828638</v>
       </c>
       <c r="C153">
-        <v>35.42514609420897</v>
+        <v>35.42514609420848</v>
       </c>
       <c r="D153">
-        <v>15.621866353215</v>
+        <v>15.62186635321483</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -8316,11 +8316,11 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L153">
-        <v>0.6901857118556052</v>
+        <v>0.6901857118556054</v>
       </c>
     </row>
     <row r="154">
@@ -8333,7 +8333,7 @@
         <v>174.8733447762966</v>
       </c>
       <c r="C154">
-        <v>32.22353545344464</v>
+        <v>32.22353545344465</v>
       </c>
       <c r="D154">
         <v>14.129347182962</v>
@@ -8368,11 +8368,11 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L154">
-        <v>0.6822421229553459</v>
+        <v>0.6822421229553465</v>
       </c>
     </row>
     <row r="155">
@@ -8382,13 +8382,13 @@
         </is>
       </c>
       <c r="B155">
-        <v>161.1973928342294</v>
+        <v>161.1973928342295</v>
       </c>
       <c r="C155">
-        <v>27.24145112523843</v>
+        <v>27.24145112523914</v>
       </c>
       <c r="D155">
-        <v>13.08506945496154</v>
+        <v>13.0850694549614</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -8420,11 +8420,11 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L155">
-        <v>0.6568603091042046</v>
+        <v>0.6568603091042048</v>
       </c>
     </row>
     <row r="156">
@@ -8472,11 +8472,11 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L156">
-        <v>0.6617461982596231</v>
+        <v>0.6617461982596234</v>
       </c>
     </row>
     <row r="157">
@@ -8486,13 +8486,13 @@
         </is>
       </c>
       <c r="B157">
-        <v>142.2807817900707</v>
+        <v>142.2807817900705</v>
       </c>
       <c r="C157">
-        <v>21.59565260121105</v>
+        <v>21.5956526012107</v>
       </c>
       <c r="D157">
-        <v>8.346508927121908</v>
+        <v>8.346508927122125</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -8524,11 +8524,11 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L157">
-        <v>0.6276726283556646</v>
+        <v>0.627672628355665</v>
       </c>
     </row>
     <row r="158">
@@ -8538,10 +8538,10 @@
         </is>
       </c>
       <c r="B158">
-        <v>217.58316392649</v>
+        <v>217.5831639264898</v>
       </c>
       <c r="C158">
-        <v>16.21666503033355</v>
+        <v>16.21666503033351</v>
       </c>
       <c r="D158">
         <v>4.922108325209695</v>
@@ -8576,11 +8576,11 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L158">
-        <v>0.5208853918017073</v>
+        <v>0.5208853918017077</v>
       </c>
     </row>
     <row r="159">
@@ -8628,11 +8628,11 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L159">
-        <v>0.5051796183731118</v>
+        <v>0.5051796183731123</v>
       </c>
     </row>
     <row r="160">
@@ -8642,10 +8642,10 @@
         </is>
       </c>
       <c r="B160">
-        <v>219.9031680855577</v>
+        <v>219.9031680855549</v>
       </c>
       <c r="C160">
-        <v>20.16726588518532</v>
+        <v>20.16726588518507</v>
       </c>
       <c r="D160">
         <v>6.938499613087148</v>
@@ -8680,11 +8680,11 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L160">
-        <v>0.5624098082661595</v>
+        <v>0.5624098082661596</v>
       </c>
     </row>
     <row r="161">
@@ -8694,13 +8694,13 @@
         </is>
       </c>
       <c r="B161">
-        <v>206.3097719636857</v>
+        <v>206.3097719636856</v>
       </c>
       <c r="C161">
-        <v>26.62092778108732</v>
+        <v>26.62092778108704</v>
       </c>
       <c r="D161">
-        <v>11.93221070539519</v>
+        <v>11.93221070539533</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8732,11 +8732,11 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L161">
-        <v>0.6212944933790642</v>
+        <v>0.6212944933790644</v>
       </c>
     </row>
     <row r="162">
@@ -8746,13 +8746,13 @@
         </is>
       </c>
       <c r="B162">
-        <v>178.3384141744746</v>
+        <v>178.3384141744745</v>
       </c>
       <c r="C162">
-        <v>31.46515404201749</v>
+        <v>31.46515404201731</v>
       </c>
       <c r="D162">
-        <v>13.80050757424068</v>
+        <v>13.80050757424067</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8784,11 +8784,11 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L162">
-        <v>0.6701702839488225</v>
+        <v>0.6701702839488223</v>
       </c>
     </row>
     <row r="163">
@@ -8798,13 +8798,13 @@
         </is>
       </c>
       <c r="B163">
-        <v>219.4256673978068</v>
+        <v>219.4256673978042</v>
       </c>
       <c r="C163">
-        <v>58.04999583379184</v>
+        <v>58.04999583379143</v>
       </c>
       <c r="D163">
-        <v>22.0462463938456</v>
+        <v>22.04624639384557</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L163">
@@ -8850,13 +8850,13 @@
         </is>
       </c>
       <c r="B164">
-        <v>200.7570072515696</v>
+        <v>200.7570072515689</v>
       </c>
       <c r="C164">
-        <v>37.66070942160944</v>
+        <v>37.66070942160914</v>
       </c>
       <c r="D164">
-        <v>16.79712275247546</v>
+        <v>16.79712275247549</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8888,11 +8888,11 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L164">
-        <v>0.6911590184494837</v>
+        <v>0.691159018449484</v>
       </c>
     </row>
     <row r="165">
@@ -8902,13 +8902,13 @@
         </is>
       </c>
       <c r="B165">
-        <v>150.0753187648488</v>
+        <v>150.0753187648486</v>
       </c>
       <c r="C165">
-        <v>26.14683882156583</v>
+        <v>26.14683882156496</v>
       </c>
       <c r="D165">
-        <v>13.15020583448277</v>
+        <v>13.1502058344831</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8940,11 +8940,11 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L165">
-        <v>0.660694582946749</v>
+        <v>0.6606945829467492</v>
       </c>
     </row>
     <row r="166">
@@ -8954,13 +8954,13 @@
         </is>
       </c>
       <c r="B166">
-        <v>151.6547370069393</v>
+        <v>151.6547370069392</v>
       </c>
       <c r="C166">
-        <v>25.21798136608073</v>
+        <v>25.2179813660805</v>
       </c>
       <c r="D166">
-        <v>12.59993767126994</v>
+        <v>12.59993767126995</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8992,11 +8992,11 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L166">
-        <v>0.6504780426777138</v>
+        <v>0.6504780426777141</v>
       </c>
     </row>
     <row r="167">
@@ -9044,11 +9044,11 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L167">
-        <v>0.6446296359788921</v>
+        <v>0.6446296359788926</v>
       </c>
     </row>
     <row r="168">
@@ -9061,7 +9061,7 @@
         <v>133.2547126291589</v>
       </c>
       <c r="C168">
-        <v>22.60903081329456</v>
+        <v>22.60903081329455</v>
       </c>
       <c r="D168">
         <v>12.16464816883503</v>
@@ -9096,11 +9096,11 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L168">
-        <v>0.6456691695935006</v>
+        <v>0.645669169593501</v>
       </c>
     </row>
     <row r="169">
@@ -9148,11 +9148,11 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L169">
-        <v>0.6347060108934345</v>
+        <v>0.6347060108934344</v>
       </c>
     </row>
     <row r="170">
@@ -9200,11 +9200,11 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L170">
-        <v>0.5407069291831552</v>
+        <v>0.5407069291831557</v>
       </c>
     </row>
     <row r="171">
@@ -9252,11 +9252,11 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L171">
-        <v>0.4548415533436179</v>
+        <v>0.4548415533436182</v>
       </c>
     </row>
     <row r="172">
@@ -9304,11 +9304,11 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L172">
-        <v>0.4747248003379779</v>
+        <v>0.4747248003379783</v>
       </c>
     </row>
     <row r="173">
@@ -9321,10 +9321,10 @@
         <v>209.6602658649531</v>
       </c>
       <c r="C173">
-        <v>13.73944150375991</v>
+        <v>13.73944150375993</v>
       </c>
       <c r="D173">
-        <v>4.066988489945873</v>
+        <v>4.066988489945857</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -9356,11 +9356,11 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L173">
-        <v>0.4961339955962248</v>
+        <v>0.4961339955962253</v>
       </c>
     </row>
     <row r="174">
@@ -9373,10 +9373,10 @@
         <v>233.700480827184</v>
       </c>
       <c r="C174">
-        <v>43.04677188238981</v>
+        <v>43.04677188238949</v>
       </c>
       <c r="D174">
-        <v>20.40833786639101</v>
+        <v>20.40833786639114</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -9408,11 +9408,11 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L174">
-        <v>0.6937866365700048</v>
+        <v>0.6937866365700056</v>
       </c>
     </row>
     <row r="175">
@@ -9422,13 +9422,13 @@
         </is>
       </c>
       <c r="B175">
-        <v>204.8254077247821</v>
+        <v>204.8254077247822</v>
       </c>
       <c r="C175">
-        <v>41.66972710106554</v>
+        <v>41.6697271010658</v>
       </c>
       <c r="D175">
-        <v>21.59121767416931</v>
+        <v>21.59121767416927</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -9460,11 +9460,11 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L175">
-        <v>0.7074609352492682</v>
+        <v>0.7074609352492685</v>
       </c>
     </row>
     <row r="176">
@@ -9474,10 +9474,10 @@
         </is>
       </c>
       <c r="B176">
-        <v>164.9503182076587</v>
+        <v>164.9503182076584</v>
       </c>
       <c r="C176">
-        <v>32.73598413377484</v>
+        <v>32.73598413377466</v>
       </c>
       <c r="D176">
         <v>15.03309918227962</v>
@@ -9512,11 +9512,11 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L176">
-        <v>0.6882504350446482</v>
+        <v>0.6882504350446488</v>
       </c>
     </row>
     <row r="177">
@@ -9526,13 +9526,13 @@
         </is>
       </c>
       <c r="B177">
-        <v>183.7565762208458</v>
+        <v>183.7565762208457</v>
       </c>
       <c r="C177">
-        <v>28.02215773013399</v>
+        <v>28.02215773013378</v>
       </c>
       <c r="D177">
-        <v>12.0081540161853</v>
+        <v>12.00815401618531</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -9564,11 +9564,11 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L177">
-        <v>0.6468359190587774</v>
+        <v>0.6468359190587776</v>
       </c>
     </row>
     <row r="178">
@@ -9578,13 +9578,13 @@
         </is>
       </c>
       <c r="B178">
-        <v>176.7615484738413</v>
+        <v>176.7615484738415</v>
       </c>
       <c r="C178">
-        <v>29.46139370795921</v>
+        <v>29.46139370795905</v>
       </c>
       <c r="D178">
-        <v>13.88339652644562</v>
+        <v>13.88339652644571</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -9616,11 +9616,11 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L178">
-        <v>0.6569642522655509</v>
+        <v>0.6569642522655512</v>
       </c>
     </row>
     <row r="179">
@@ -9633,10 +9633,10 @@
         <v>159.1616303924138</v>
       </c>
       <c r="C179">
-        <v>29.68778513582718</v>
+        <v>29.68778513582702</v>
       </c>
       <c r="D179">
-        <v>14.6856172631965</v>
+        <v>14.68561726319651</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -9668,11 +9668,11 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L179">
-        <v>0.6764851334689134</v>
+        <v>0.6764851334689139</v>
       </c>
     </row>
     <row r="180">
@@ -9720,11 +9720,11 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L180">
-        <v>0.6176156492826854</v>
+        <v>0.617615649282686</v>
       </c>
     </row>
     <row r="181">
@@ -9772,11 +9772,11 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L181">
-        <v>0.7192625408641707</v>
+        <v>0.7192625408641705</v>
       </c>
     </row>
     <row r="182">
@@ -9824,11 +9824,11 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L182">
-        <v>0.5017165638735305</v>
+        <v>0.5017165638735309</v>
       </c>
     </row>
     <row r="183">
@@ -9841,10 +9841,10 @@
         <v>219.8544877862072</v>
       </c>
       <c r="C183">
-        <v>21.69272876863736</v>
+        <v>21.69272876863728</v>
       </c>
       <c r="D183">
-        <v>5.710039247161521</v>
+        <v>5.710039247161522</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9876,11 +9876,11 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L183">
-        <v>0.5776529819365629</v>
+        <v>0.5776529819365634</v>
       </c>
     </row>
     <row r="184">
@@ -9928,11 +9928,11 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L184">
-        <v>0.5966210948696026</v>
+        <v>0.596621094869603</v>
       </c>
     </row>
     <row r="185">
@@ -9980,11 +9980,11 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L185">
-        <v>0.6031567647035134</v>
+        <v>0.6031567647035139</v>
       </c>
     </row>
     <row r="186">
@@ -9994,10 +9994,10 @@
         </is>
       </c>
       <c r="B186">
-        <v>167.2333498369307</v>
+        <v>167.2333498369306</v>
       </c>
       <c r="C186">
-        <v>34.54884504203299</v>
+        <v>34.54884504203294</v>
       </c>
       <c r="D186">
         <v>17.67227187521435</v>
@@ -10032,11 +10032,11 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L186">
-        <v>0.701356963902209</v>
+        <v>0.7013569639022094</v>
       </c>
     </row>
     <row r="187">
@@ -10049,10 +10049,10 @@
         <v>168.1195646810439</v>
       </c>
       <c r="C187">
-        <v>33.02246428201603</v>
+        <v>33.02246428201564</v>
       </c>
       <c r="D187">
-        <v>14.7717800490861</v>
+        <v>14.77178004908631</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -10084,11 +10084,11 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L187">
-        <v>0.6899792222932718</v>
+        <v>0.689979222293272</v>
       </c>
     </row>
     <row r="188">
@@ -10136,11 +10136,11 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L188">
-        <v>0.7075611731030176</v>
+        <v>0.7075611731030179</v>
       </c>
     </row>
     <row r="189">
@@ -10150,13 +10150,13 @@
         </is>
       </c>
       <c r="B189">
-        <v>166.2449777456191</v>
+        <v>166.2449777456183</v>
       </c>
       <c r="C189">
-        <v>27.33304360247102</v>
+        <v>27.33304360247084</v>
       </c>
       <c r="D189">
-        <v>12.20883746144932</v>
+        <v>12.20883746144935</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -10188,11 +10188,11 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L189">
-        <v>0.6550929215916169</v>
+        <v>0.6550929215916175</v>
       </c>
     </row>
     <row r="190">
@@ -10205,7 +10205,7 @@
         <v>142.2327813988055</v>
       </c>
       <c r="C190">
-        <v>23.92779277158905</v>
+        <v>23.92779277158903</v>
       </c>
       <c r="D190">
         <v>11.65317230593418</v>
@@ -10240,11 +10240,11 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L190">
-        <v>0.6498621619357128</v>
+        <v>0.6498621619357132</v>
       </c>
     </row>
     <row r="191">
@@ -10292,11 +10292,11 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L191">
-        <v>0.6378957123526862</v>
+        <v>0.6378957123526866</v>
       </c>
     </row>
     <row r="192">
@@ -10306,10 +10306,10 @@
         </is>
       </c>
       <c r="B192">
-        <v>143.6339466097086</v>
+        <v>143.6339466097087</v>
       </c>
       <c r="C192">
-        <v>37.46069397690687</v>
+        <v>37.46069397690688</v>
       </c>
       <c r="D192">
         <v>20.97281491307912</v>
@@ -10344,11 +10344,11 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L192">
-        <v>0.7358093370520646</v>
+        <v>0.7358093370520647</v>
       </c>
     </row>
     <row r="193">
@@ -10358,10 +10358,10 @@
         </is>
       </c>
       <c r="B193">
-        <v>144.5654260900742</v>
+        <v>144.5654260900738</v>
       </c>
       <c r="C193">
-        <v>32.30356990701909</v>
+        <v>32.3035699070189</v>
       </c>
       <c r="D193">
         <v>18.79368158298036</v>
@@ -10396,11 +10396,11 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L193">
-        <v>0.7050320739019001</v>
+        <v>0.7050320739019006</v>
       </c>
     </row>
   </sheetData>
